--- a/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
+++ b/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
@@ -4,24 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="用户模块" sheetId="73" r:id="rId2"/>
     <sheet name="产品方案查询模块" sheetId="75" r:id="rId3"/>
-    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId4"/>
+    <sheet name="订单模块" sheetId="77" r:id="rId4"/>
+    <sheet name="服务模块" sheetId="78" r:id="rId5"/>
+    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="寄灵人" localSheetId="2">#REF!</definedName>
-    <definedName name="寄灵人">#REF!</definedName>
-    <definedName name="守护灵" localSheetId="2">#REF!</definedName>
-    <definedName name="守护灵">#REF!</definedName>
-    <definedName name="属性评价" localSheetId="2">#REF!</definedName>
-    <definedName name="属性评价">#REF!</definedName>
-    <definedName name="玩家类型" localSheetId="2">#REF!</definedName>
-    <definedName name="玩家类型">#REF!</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="378">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -306,14 +298,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>body</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户模块</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -346,10 +330,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>专属节点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>专属客服经理</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -367,10 +347,6 @@
   </si>
   <si>
     <t>customLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecNodes</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -394,10 +370,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>header</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户开户时的姓名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -409,10 +381,6 @@
   </si>
   <si>
     <t>专属客服经理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属节点，数组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -477,22 +445,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>odule</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>英文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -519,10 +471,6 @@
   </si>
   <si>
     <t>字段说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ecNode</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -598,10 +546,6 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Header</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -676,10 +620,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Body</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>传入标签数组，返回符合标签的产品列表的分页数据，个标签间逻辑与关系。例如传入a,b。则表示产品必须同时包含标签a和标签b</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -824,10 +764,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>输出参数-方案-数组元素</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>方案Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -852,10 +788,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>输出参数-方案-数组元素-资费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -864,8 +796,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>价格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProductDetail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取产品详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入产品Id，获取产品详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>0</t>
+      <t>L</t>
     </r>
     <r>
       <rPr>
@@ -875,20 +831,935 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>.免费 1.按月付费 2. 一次性付费</t>
+      <t>ong</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetProductDetail</t>
+    <t>Get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>产品的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入方案Id，获取方案详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>该模块支持订单的下单和订单的查询。
+#1 订单申请  #2 订单列表查询  #3 订单撤销</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyOder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个业务申请的订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Header</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请方案的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请节点的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请业务所在地Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示订单成功创建，2表示订单创建不成功</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>errMsg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建不成功，则显示不成功的原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListOrder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出订单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderDetail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页Id，不填默认第一页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rderId</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ong</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>reateTime</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单方案Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单对应方案的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单的创建时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示订单详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单的状态，1表示申请中，2表示审核中，3表示未通过，4小时已开通，5表示撤销中（已撤销的订单不显示）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据个数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页大小</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据个数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页数据，数组，数组项如下表  输出参数-订单列表项 所示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核员联系方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessorId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单对应方案的名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单方案名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产品Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单产品名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单对应产品的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单对应产品的名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecNodes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理订单审核员ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理订单审核员名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessorName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assessorTel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理订单审核员联系方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请节点数据，数据格式在【用户模块】</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品列表项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>concelOrder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在订单状态处于1申请中，2审核中，3未通过时，可以申请撤掉订单。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示撤销申请提交成功，2表示该状态的订单无法撤销，3表示没有找到该订单Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务模块</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个订单审核通过后，会生成一个业务。
+该模块支持业务的查询和终止申请。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListService</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看服务列表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉取服务列表的分页数据。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在第几页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第几页</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务列表数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>module</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>programName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDateTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetServiceDetail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服务I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务的Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户合同号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contractName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainServiceType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainServiceId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主业务类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主业务Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>见产品方案查询模块，GetProductDetail，module ： 资费信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.免费 1.按月付费 2. 一次性付费 3. 流量付费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>um</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type为3时，表示流量的量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费的状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务所在地信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用包ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>packageId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nteger</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品来源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：应用服务；1：专供一体机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：自有产品；1：合作产品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>productSource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取方案详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProgramDetail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Module</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单列表数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属节点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecNode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属节点，数组，元素类型为ecNode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务所在省</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务所在地市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务一级末梢区域区县</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdCountyName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务所在省编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>provinceId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务所在地市编码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdCountyId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdCountyId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地点Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chargeStatus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. 已付款，2. 待支付，3.欠费</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交付团队</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>onHireTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计费截止时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过该时间未支付则服务进入欠费状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDataTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下次付费时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthPayTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月支付模式下，下个月付费的时间点</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1887,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1083,8 +1954,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1389,6 +2266,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1420,7 +2306,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1475,6 +2361,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="8" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="8" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,6 +2428,15 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,54 +2446,20 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="3" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="8" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="8" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1572,20 +2473,17 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="3" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1596,11 +2494,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="8" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="8" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1951,12 +2855,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1965,10 +2869,10 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="41" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1979,26 +2883,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="42"/>
     </row>
     <row r="5" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -2007,10 +2911,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -2019,151 +2923,147 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="33"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="33"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="33"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2176,12 +3076,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -2207,15 +3111,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G18"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
@@ -2229,84 +3133,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="17" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" s="18" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>64</v>
+      <c r="C6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="24" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="17" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="A9" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:7" s="17" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
@@ -2344,8 +3248,8 @@
       <c r="D14" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="42" t="s">
-        <v>61</v>
+      <c r="E14" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>49</v>
@@ -2365,8 +3269,8 @@
       <c r="D15" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>62</v>
+      <c r="E15" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>48</v>
@@ -2374,15 +3278,15 @@
       <c r="G15" s="19"/>
     </row>
     <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
     </row>
     <row r="18" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
@@ -2408,13 +3312,13 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="19" t="s">
@@ -2422,18 +3326,18 @@
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -2441,37 +3345,37 @@
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>67</v>
+      <c r="B24" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -2480,27 +3384,27 @@
       <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:11" s="17" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="A26" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
@@ -2526,36 +3430,36 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="42" t="s">
-        <v>80</v>
+      <c r="E30" s="28" t="s">
+        <v>191</v>
       </c>
       <c r="F30" s="19"/>
-      <c r="G30" s="42" t="s">
-        <v>125</v>
+      <c r="G30" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
     </row>
@@ -2569,359 +3473,374 @@
       <c r="C33" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
+      <c r="D33" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="57"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="55"/>
+      <c r="D34" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
     </row>
     <row r="35" spans="1:11" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
+      <c r="A35" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
     </row>
     <row r="36" spans="1:11" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="42" t="s">
+      <c r="A36" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="55"/>
+      <c r="D36" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
     </row>
     <row r="37" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="55"/>
+      <c r="D37" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="55"/>
+      <c r="A38" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+    </row>
+    <row r="41" spans="1:11" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="23"/>
+    </row>
+    <row r="42" spans="1:11" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+    </row>
+    <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="53" t="s">
+      <c r="B44" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+    </row>
+    <row r="45" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="55"/>
-    </row>
-    <row r="41" spans="1:11" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-    </row>
-    <row r="43" spans="1:11" ht="33" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="42" t="s">
+      <c r="B45" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-    </row>
-    <row r="44" spans="1:11" s="17" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C44" s="42" t="s">
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+    </row>
+    <row r="46" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-    </row>
-    <row r="45" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-    </row>
-    <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
     </row>
     <row r="47" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
     </row>
     <row r="48" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="12" t="s">
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.2">
+      <c r="A50" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C50" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="52" spans="1:7" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="B52" s="23"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D52" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-    </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="D54" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+    </row>
+    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="D42:G42"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D20 D14:D15 D30">
       <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15 E30">
+      <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2931,109 +3850,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="44" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="27.25" style="44" customWidth="1"/>
-    <col min="7" max="7" width="77.75" style="44" customWidth="1"/>
-    <col min="8" max="9" width="10.625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="44" customWidth="1"/>
-    <col min="11" max="28" width="10.625" style="44" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="44"/>
+    <col min="1" max="1" width="14.875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="77.75" style="23" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="23" customWidth="1"/>
+    <col min="11" max="28" width="10.625" style="23" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="A1" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>121</v>
+      <c r="B6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="46">
-        <v>1</v>
+      <c r="B7" s="22" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="A9" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -3066,92 +3979,92 @@
         <v>28</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="42" t="s">
-        <v>124</v>
+      <c r="E13" s="28" t="s">
+        <v>192</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="42" t="s">
-        <v>126</v>
+      <c r="G13" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="A14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="42" t="s">
-        <v>129</v>
+      <c r="G14" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="F15" s="19"/>
-      <c r="G15" s="42" t="s">
-        <v>132</v>
+      <c r="G15" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>140</v>
+        <v>119</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>190</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="42" t="s">
-        <v>136</v>
+      <c r="G16" s="21" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="A18" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -3163,379 +4076,3424 @@
       <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="D22" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="24" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="C26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
+      <c r="C27" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="C42" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+    </row>
+    <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+    </row>
+    <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B22" s="42" t="s">
+      <c r="C47" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" s="67"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A53" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+    </row>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
+    </row>
+    <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
+    </row>
+    <row r="57" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="60"/>
+      <c r="G62" s="61"/>
+    </row>
+    <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="58"/>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="20"/>
+      <c r="G66" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" s="20"/>
+      <c r="G67" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="58"/>
+      <c r="G69" s="58"/>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+    </row>
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="B71" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="B72" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B25" s="42" t="s">
+      <c r="B73" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="42" t="s">
+      <c r="B74" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="29" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="42" t="s">
+      <c r="C74" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-    </row>
-    <row r="36" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-    </row>
-    <row r="47" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A37:G37"/>
+  <mergeCells count="34">
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
     <mergeCell ref="A18:G18"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D27:G27"/>
     <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D73:G73"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D37:D38 D66:D67">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E37:E38 E66:E67">
+      <formula1>"Header,Param,Body"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="77.75" style="23" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="23" customWidth="1"/>
+    <col min="11" max="28" width="10.625" style="23" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="61"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A37" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="61"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="61"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="68"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="61"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D51" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="61"/>
+    </row>
+    <row r="60" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A60" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="58"/>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="E67" s="60"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="61"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="D69" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
+      <c r="G71" s="53"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D79" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
+      <c r="G79" s="53"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E83" s="54"/>
+      <c r="F83" s="54"/>
+      <c r="G83" s="54"/>
+    </row>
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D84" s="53"/>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+      <c r="G84" s="53"/>
+    </row>
+    <row r="85" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="53"/>
+      <c r="G85" s="53"/>
+    </row>
+    <row r="86" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+    </row>
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+    </row>
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+    </row>
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+    </row>
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+    </row>
+    <row r="91" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54"/>
+    </row>
+    <row r="95" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="20"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="64"/>
+    </row>
+    <row r="96" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="63"/>
+      <c r="G96" s="64"/>
+    </row>
+    <row r="97" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="20"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="64"/>
+    </row>
+    <row r="98" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="C98" s="20"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63"/>
+      <c r="G98" s="64"/>
+    </row>
+    <row r="99" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C99" s="20"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="64"/>
+    </row>
+    <row r="100" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C100" s="20"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="63"/>
+      <c r="G100" s="64"/>
+    </row>
+    <row r="101" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" s="20"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="64"/>
+    </row>
+    <row r="102" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C105" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B106" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A107" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="61"/>
+    </row>
+    <row r="110" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A110" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
+    </row>
+    <row r="111" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A111" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F111" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E112" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F112" s="20"/>
+      <c r="G112" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E113" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F113" s="20"/>
+      <c r="G113" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A115" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B115" s="58"/>
+      <c r="C115" s="58"/>
+      <c r="D115" s="58"/>
+      <c r="E115" s="58"/>
+      <c r="F115" s="58"/>
+      <c r="G115" s="58"/>
+    </row>
+    <row r="116" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A116" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E116" s="54"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="D117" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="61">
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D117:G117"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="D116:G116"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="A37:G37"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D33:D35 D62:D63 D24:D25 D112:D113">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E33:E35 E62:E63 E24:E25 E112:E113">
+      <formula1>"Header,Param,Body"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="23" customWidth="1"/>
+    <col min="7" max="7" width="77.75" style="23" customWidth="1"/>
+    <col min="8" max="9" width="10.625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="23" customWidth="1"/>
+    <col min="11" max="28" width="10.625" style="23" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="70" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+    </row>
+    <row r="34" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="67"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="28" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="67"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="57"/>
+    </row>
+    <row r="46" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+    </row>
+    <row r="49" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
+    </row>
+    <row r="51" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
+    </row>
+    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+    </row>
+    <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="62"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="64"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="51"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="51"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+    </row>
+    <row r="72" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="53"/>
+    </row>
+    <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" s="53"/>
+      <c r="F75" s="53"/>
+      <c r="G75" s="53"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="67"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="67"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="67"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="67"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+    </row>
+    <row r="84" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="67"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="67"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="A91:G91"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A11:G11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E88:E89 E13:E15 E41:E42">
+      <formula1>"Header,Param,Body"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D88:D89 D13:D15 D41:D42">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3544,7 +7502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD223"/>
   <sheetViews>
@@ -3559,37 +7517,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="58"/>
+      <c r="AB2" s="58"/>
+      <c r="AC2" s="58"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">

--- a/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
+++ b/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
@@ -10,8 +10,8 @@
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
     <sheet name="用户模块" sheetId="73" r:id="rId2"/>
     <sheet name="产品方案查询模块" sheetId="75" r:id="rId3"/>
-    <sheet name="订单模块" sheetId="77" r:id="rId4"/>
-    <sheet name="服务模块" sheetId="78" r:id="rId5"/>
+    <sheet name="订单草稿" sheetId="77" r:id="rId4"/>
+    <sheet name="订单模块" sheetId="78" r:id="rId5"/>
     <sheet name="账单模块" sheetId="79" r:id="rId6"/>
     <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId7"/>
   </sheets>
@@ -3116,6 +3116,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3161,24 +3176,6 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3188,8 +3185,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3205,6 +3202,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3574,12 +3574,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -3588,10 +3588,10 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3602,26 +3602,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -3630,10 +3630,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -3642,151 +3642,147 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="42"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="42"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="42"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -3799,12 +3795,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -3852,15 +3852,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -3868,15 +3868,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -3906,28 +3906,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
@@ -3995,15 +3995,15 @@
       <c r="G15" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
@@ -4094,26 +4094,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="61" t="s">
         <v>461</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -4160,15 +4160,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -4180,12 +4180,12 @@
       <c r="C33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
@@ -4197,12 +4197,12 @@
       <c r="C34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -4214,12 +4214,12 @@
       <c r="C35" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
@@ -4231,12 +4231,12 @@
       <c r="C36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
     </row>
     <row r="37" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
@@ -4248,12 +4248,12 @@
       <c r="C37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
@@ -4265,12 +4265,12 @@
       <c r="C38" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
@@ -4282,12 +4282,12 @@
       <c r="C39" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
@@ -4317,12 +4317,12 @@
       <c r="C43" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
@@ -4334,10 +4334,10 @@
       <c r="C44" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
@@ -4349,10 +4349,10 @@
       <c r="C45" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
@@ -4364,10 +4364,10 @@
       <c r="C46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
@@ -4379,10 +4379,10 @@
       <c r="C47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
@@ -4394,10 +4394,10 @@
       <c r="C48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
@@ -4409,10 +4409,10 @@
       <c r="C49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
@@ -4424,10 +4424,10 @@
       <c r="C50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
@@ -4457,12 +4457,12 @@
       <c r="C54" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
@@ -4474,10 +4474,10 @@
       <c r="C55" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
@@ -4489,10 +4489,10 @@
       <c r="C56" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4504,24 +4504,13 @@
       <c r="C57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:G28"/>
@@ -4538,6 +4527,17 @@
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
@@ -4557,8 +4557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4577,15 +4577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -4593,15 +4593,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -4631,27 +4631,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -4761,15 +4761,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -4781,12 +4781,12 @@
       <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -4798,12 +4798,12 @@
       <c r="C20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -4815,12 +4815,12 @@
       <c r="C21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -4832,12 +4832,12 @@
       <c r="C22" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
     </row>
     <row r="24" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
@@ -4854,12 +4854,12 @@
       <c r="C25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -4871,10 +4871,10 @@
       <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
@@ -4886,10 +4886,10 @@
       <c r="C27" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -4925,26 +4925,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="67"/>
     </row>
     <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
@@ -5012,15 +5012,15 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -5032,12 +5032,12 @@
       <c r="C41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
     </row>
     <row r="42" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
@@ -5049,10 +5049,10 @@
       <c r="C42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
@@ -5064,10 +5064,10 @@
       <c r="C43" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -5091,12 +5091,12 @@
       <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
@@ -5108,10 +5108,10 @@
       <c r="C47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
@@ -5123,10 +5123,10 @@
       <c r="C48" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -5138,10 +5138,10 @@
       <c r="C49" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
@@ -5171,12 +5171,12 @@
       <c r="C53" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -5188,12 +5188,12 @@
       <c r="C54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="70"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -5205,12 +5205,12 @@
       <c r="C55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="69"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -5222,12 +5222,12 @@
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="70"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5258,26 +5258,26 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="68"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="67"/>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -5345,15 +5345,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
@@ -5365,12 +5365,12 @@
       <c r="C70" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="64" t="s">
+      <c r="D70" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -5382,10 +5382,10 @@
       <c r="C71" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -5397,10 +5397,10 @@
       <c r="C72" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
@@ -5412,10 +5412,10 @@
       <c r="C73" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
@@ -5427,13 +5427,31 @@
       <c r="C74" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="D74:G74"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
@@ -5450,24 +5468,6 @@
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D70:G70"/>
     <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
@@ -5487,8 +5487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J134" sqref="J134"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5507,15 +5507,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -5523,15 +5523,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -5561,27 +5561,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -5691,15 +5691,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -5711,12 +5711,12 @@
       <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -5728,12 +5728,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -5745,12 +5745,12 @@
       <c r="C21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
     </row>
     <row r="23" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -5781,26 +5781,26 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="67"/>
     </row>
     <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
@@ -5889,15 +5889,15 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
@@ -5909,12 +5909,12 @@
       <c r="C37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
@@ -5926,12 +5926,12 @@
       <c r="C38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
@@ -5943,12 +5943,12 @@
       <c r="C39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
@@ -5960,12 +5960,12 @@
       <c r="C40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
@@ -5977,12 +5977,12 @@
       <c r="C41" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="67"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
@@ -6026,12 +6026,12 @@
       <c r="C46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
@@ -6043,12 +6043,12 @@
       <c r="C47" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="68"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
@@ -6060,12 +6060,12 @@
       <c r="C48" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -6077,12 +6077,12 @@
       <c r="C49" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
@@ -6094,12 +6094,12 @@
       <c r="C50" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
@@ -6111,12 +6111,12 @@
       <c r="C51" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="70" t="s">
         <v>467</v>
       </c>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6148,26 +6148,26 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="67"/>
     </row>
     <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62"/>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -6235,15 +6235,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -6255,12 +6255,12 @@
       <c r="C65" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -6272,12 +6272,12 @@
       <c r="C66" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="66" t="s">
+      <c r="D66" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="67"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -6289,12 +6289,12 @@
       <c r="C67" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D67" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -6306,12 +6306,12 @@
       <c r="C68" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -6323,12 +6323,12 @@
       <c r="C69" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="70" t="s">
         <v>497</v>
       </c>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
@@ -6340,12 +6340,12 @@
       <c r="C70" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D70" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -6357,12 +6357,12 @@
       <c r="C71" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -6374,12 +6374,12 @@
       <c r="C72" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="70" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
@@ -6391,12 +6391,12 @@
       <c r="C73" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D73" s="65" t="s">
+      <c r="D73" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -6408,12 +6408,12 @@
       <c r="C74" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -6425,12 +6425,12 @@
       <c r="C75" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="65" t="s">
+      <c r="D75" s="70" t="s">
         <v>249</v>
       </c>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -6442,12 +6442,12 @@
       <c r="C76" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
@@ -6459,12 +6459,12 @@
       <c r="C77" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="65" t="s">
+      <c r="D77" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
@@ -6476,12 +6476,12 @@
       <c r="C78" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="65" t="s">
+      <c r="D78" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
     </row>
     <row r="79" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
@@ -6493,21 +6493,21 @@
       <c r="C79" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="65" t="s">
+      <c r="D79" s="70" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
     </row>
     <row r="80" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
@@ -6532,12 +6532,12 @@
       <c r="C84" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
     </row>
     <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
@@ -6549,10 +6549,10 @@
       <c r="C85" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
     </row>
     <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
@@ -6564,10 +6564,10 @@
       <c r="C86" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
@@ -6579,10 +6579,10 @@
       <c r="C87" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
@@ -6594,10 +6594,10 @@
       <c r="C88" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
     </row>
     <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
@@ -6609,10 +6609,10 @@
       <c r="C89" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61"/>
+      <c r="G89" s="61"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
@@ -6624,10 +6624,10 @@
       <c r="C90" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
+      <c r="D90" s="61"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="61"/>
+      <c r="G90" s="61"/>
     </row>
     <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
@@ -6639,10 +6639,10 @@
       <c r="C91" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
     </row>
     <row r="92" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6668,12 +6668,12 @@
       <c r="C95" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="64" t="s">
+      <c r="D95" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="63"/>
+      <c r="G95" s="63"/>
     </row>
     <row r="96" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
@@ -6795,12 +6795,12 @@
       <c r="C106" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="64" t="s">
+      <c r="D106" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
     </row>
     <row r="107" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
@@ -6812,10 +6812,10 @@
       <c r="C107" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D107" s="66"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="70"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="68"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="69"/>
     </row>
     <row r="108" spans="1:7" s="40" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
@@ -6827,10 +6827,10 @@
       <c r="C108" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D108" s="66"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="70"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="69"/>
     </row>
     <row r="109" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6856,12 +6856,12 @@
       <c r="C112" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="64" t="s">
+      <c r="D112" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="64"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
     </row>
     <row r="113" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
@@ -6873,12 +6873,12 @@
       <c r="C113" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D113" s="66" t="s">
+      <c r="D113" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="70"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="69"/>
     </row>
     <row r="114" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
@@ -6890,12 +6890,12 @@
       <c r="C114" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="66" t="s">
+      <c r="D114" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="70"/>
+      <c r="E114" s="68"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="69"/>
     </row>
     <row r="115" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
@@ -6907,12 +6907,12 @@
       <c r="C115" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="66" t="s">
+      <c r="D115" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="70"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="69"/>
     </row>
     <row r="116" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6938,12 +6938,12 @@
       <c r="C119" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="64" t="s">
+      <c r="D119" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="63"/>
+      <c r="G119" s="63"/>
     </row>
     <row r="120" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
@@ -6955,12 +6955,12 @@
       <c r="C120" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D120" s="66" t="s">
+      <c r="D120" s="65" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="70"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="69"/>
     </row>
     <row r="121" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
@@ -6972,12 +6972,12 @@
       <c r="C121" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D121" s="66" t="s">
+      <c r="D121" s="65" t="s">
         <v>483</v>
       </c>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="70"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="69"/>
     </row>
     <row r="122" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7003,12 +7003,12 @@
       <c r="C125" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="64" t="s">
+      <c r="D125" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E125" s="64"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
+      <c r="E125" s="63"/>
+      <c r="F125" s="63"/>
+      <c r="G125" s="63"/>
     </row>
     <row r="126" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
@@ -7020,12 +7020,12 @@
       <c r="C126" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="D126" s="66" t="s">
+      <c r="D126" s="65" t="s">
         <v>494</v>
       </c>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="68"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="67"/>
     </row>
     <row r="127" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
@@ -7037,12 +7037,12 @@
       <c r="C127" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="D127" s="66" t="s">
+      <c r="D127" s="65" t="s">
         <v>495</v>
       </c>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="68"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="67"/>
     </row>
     <row r="128" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
@@ -7054,12 +7054,12 @@
       <c r="C128" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D128" s="66" t="s">
+      <c r="D128" s="65" t="s">
         <v>496</v>
       </c>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="68"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="67"/>
     </row>
     <row r="129" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7092,27 +7092,27 @@
       </c>
     </row>
     <row r="135" spans="1:7" s="40" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="66" t="s">
+      <c r="A135" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="68"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="66"/>
+      <c r="F135" s="66"/>
+      <c r="G135" s="67"/>
     </row>
     <row r="136" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="63" t="s">
+      <c r="A137" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="63"/>
-      <c r="G137" s="63"/>
+      <c r="B137" s="62"/>
+      <c r="C137" s="62"/>
+      <c r="D137" s="62"/>
+      <c r="E137" s="62"/>
+      <c r="F137" s="62"/>
+      <c r="G137" s="62"/>
     </row>
     <row r="138" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
@@ -7202,15 +7202,15 @@
     </row>
     <row r="142" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="63" t="s">
+      <c r="A143" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="62"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="62"/>
+      <c r="F143" s="62"/>
+      <c r="G143" s="62"/>
     </row>
     <row r="144" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
@@ -7222,12 +7222,12 @@
       <c r="C144" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="64" t="s">
+      <c r="D144" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="64"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
+      <c r="E144" s="63"/>
+      <c r="F144" s="63"/>
+      <c r="G144" s="63"/>
     </row>
     <row r="145" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
@@ -7239,12 +7239,12 @@
       <c r="C145" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="66" t="s">
+      <c r="D145" s="65" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="68"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="67"/>
     </row>
     <row r="146" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
@@ -7256,12 +7256,12 @@
       <c r="C146" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="65" t="s">
+      <c r="D146" s="70" t="s">
         <v>500</v>
       </c>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="62"/>
+      <c r="E146" s="61"/>
+      <c r="F146" s="61"/>
+      <c r="G146" s="61"/>
     </row>
     <row r="147" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7294,26 +7294,26 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="66" t="s">
+      <c r="A153" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="67"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="68"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="67"/>
     </row>
     <row r="155" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="63" t="s">
+      <c r="A155" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="62"/>
     </row>
     <row r="156" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
@@ -7381,15 +7381,15 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="63" t="s">
+      <c r="A160" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="B160" s="63"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="63"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="63"/>
-      <c r="G160" s="63"/>
+      <c r="B160" s="62"/>
+      <c r="C160" s="62"/>
+      <c r="D160" s="62"/>
+      <c r="E160" s="62"/>
+      <c r="F160" s="62"/>
+      <c r="G160" s="62"/>
     </row>
     <row r="161" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
@@ -7401,12 +7401,12 @@
       <c r="C161" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="64" t="s">
+      <c r="D161" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
+      <c r="E161" s="63"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="63"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
@@ -7418,27 +7418,69 @@
       <c r="C162" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D162" s="66" t="s">
+      <c r="D162" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="68"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D162:G162"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="D161:G161"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="D79:G79"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
@@ -7455,60 +7497,18 @@
     <mergeCell ref="D77:G77"/>
     <mergeCell ref="D72:G72"/>
     <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D162:G162"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="D161:G161"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="D144:G144"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
@@ -7528,8 +7528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:G69"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7548,15 +7548,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -7564,15 +7564,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -7602,27 +7602,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -7720,15 +7720,15 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
@@ -7757,12 +7757,12 @@
       <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -7774,12 +7774,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -7791,12 +7791,12 @@
       <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
@@ -7808,12 +7808,12 @@
       <c r="C22" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
@@ -7978,15 +7978,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
@@ -7998,15 +7998,15 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
@@ -8083,15 +8083,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
@@ -8150,12 +8150,12 @@
       <c r="C48" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -8227,12 +8227,12 @@
       <c r="C53" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -8244,12 +8244,12 @@
       <c r="C54" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="70" t="s">
         <v>309</v>
       </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
     </row>
     <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -8336,12 +8336,12 @@
       <c r="C60" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
@@ -8353,12 +8353,12 @@
       <c r="C61" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
@@ -8412,12 +8412,12 @@
       <c r="C66" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="64" t="s">
+      <c r="D66" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -8429,12 +8429,12 @@
       <c r="C67" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="66" t="s">
+      <c r="D67" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="70"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
+      <c r="G67" s="69"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -8446,12 +8446,12 @@
       <c r="C68" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="66" t="s">
+      <c r="D68" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="70"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="68"/>
+      <c r="G68" s="69"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -8463,12 +8463,12 @@
       <c r="C69" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="70"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="69"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
@@ -8512,12 +8512,12 @@
       <c r="C73" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="64" t="s">
+      <c r="D73" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -8529,12 +8529,12 @@
       <c r="C74" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="70" t="s">
         <v>355</v>
       </c>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -8546,10 +8546,10 @@
       <c r="C75" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -8561,12 +8561,12 @@
       <c r="C76" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
@@ -8578,12 +8578,12 @@
       <c r="C77" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="65" t="s">
+      <c r="D77" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
@@ -8628,12 +8628,12 @@
       <c r="C81" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="64" t="s">
+      <c r="D81" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
     </row>
     <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="29" t="s">
@@ -8645,10 +8645,10 @@
       <c r="C82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
@@ -8660,10 +8660,10 @@
       <c r="C83" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="29" t="s">
@@ -8675,10 +8675,10 @@
       <c r="C84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
     </row>
     <row r="85" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29" t="s">
@@ -8690,10 +8690,10 @@
       <c r="C85" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="61"/>
     </row>
     <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="29" t="s">
@@ -8705,10 +8705,10 @@
       <c r="C86" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="61"/>
     </row>
     <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="29" t="s">
@@ -8720,10 +8720,10 @@
       <c r="C87" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
+      <c r="F87" s="61"/>
+      <c r="G87" s="61"/>
     </row>
     <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="29" t="s">
@@ -8735,10 +8735,10 @@
       <c r="C88" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
+      <c r="D88" s="61"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="61"/>
+      <c r="G88" s="61"/>
     </row>
     <row r="90" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
@@ -8763,12 +8763,12 @@
       <c r="C92" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="64" t="s">
+      <c r="D92" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
     </row>
     <row r="93" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
@@ -8898,15 +8898,15 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="66" t="s">
+      <c r="A106" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="68"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="67"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D107" s="77"/>
@@ -8915,15 +8915,15 @@
       <c r="G107" s="77"/>
     </row>
     <row r="108" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="63" t="s">
+      <c r="A108" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
     </row>
     <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
@@ -8991,15 +8991,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="63" t="s">
+      <c r="A113" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
+      <c r="B113" s="62"/>
+      <c r="C113" s="62"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
     </row>
     <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
@@ -9028,47 +9028,34 @@
       <c r="C115" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="65" t="s">
+      <c r="D115" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="A106:G106"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D57:G57"/>
@@ -9085,25 +9072,38 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D107:G107"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
@@ -9143,15 +9143,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -9159,15 +9159,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -9197,27 +9197,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
@@ -9294,15 +9294,15 @@
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -9331,10 +9331,10 @@
       <c r="C18" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
@@ -9346,12 +9346,12 @@
       <c r="C19" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
@@ -9363,10 +9363,10 @@
       <c r="C20" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
@@ -9378,10 +9378,10 @@
       <c r="C21" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
@@ -9393,10 +9393,10 @@
       <c r="C22" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
@@ -9408,10 +9408,10 @@
       <c r="C23" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
@@ -9423,10 +9423,10 @@
       <c r="C24" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
@@ -9465,27 +9465,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
     </row>
     <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -9541,15 +9541,15 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
@@ -9578,10 +9578,10 @@
       <c r="C38" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
@@ -9593,10 +9593,10 @@
       <c r="C39" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
@@ -9608,12 +9608,12 @@
       <c r="C40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
@@ -9643,12 +9643,12 @@
       <c r="C44" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
@@ -9660,10 +9660,10 @@
       <c r="C45" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
@@ -9675,10 +9675,10 @@
       <c r="C46" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
@@ -9690,12 +9690,12 @@
       <c r="C47" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="69"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
@@ -9707,10 +9707,10 @@
       <c r="C48" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="69"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
@@ -9722,10 +9722,10 @@
       <c r="C49" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="69"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
@@ -9737,10 +9737,10 @@
       <c r="C50" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="69"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
@@ -9752,10 +9752,10 @@
       <c r="C51" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="69"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
@@ -9767,10 +9767,10 @@
       <c r="C52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="70"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="69"/>
     </row>
     <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -9800,26 +9800,26 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
     </row>
     <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
@@ -9950,15 +9950,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
@@ -9987,12 +9987,12 @@
       <c r="C71" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D71" s="66" t="s">
+      <c r="D71" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="68"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="67"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
@@ -10004,12 +10004,12 @@
       <c r="C72" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="65" t="s">
         <v>429</v>
       </c>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="68"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="67"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
@@ -10034,12 +10034,12 @@
       <c r="C76" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
@@ -10051,10 +10051,10 @@
       <c r="C77" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
@@ -10066,10 +10066,10 @@
       <c r="C78" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="61"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
@@ -10081,10 +10081,10 @@
       <c r="C79" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
+      <c r="D79" s="61"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="61"/>
+      <c r="G79" s="61"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
@@ -10096,10 +10096,10 @@
       <c r="C80" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
@@ -10111,12 +10111,12 @@
       <c r="C81" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D81" s="66" t="s">
+      <c r="D81" s="65" t="s">
         <v>397</v>
       </c>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="70"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="69"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
@@ -10128,10 +10128,10 @@
       <c r="C82" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
+      <c r="D82" s="61"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+      <c r="G82" s="61"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
@@ -10143,10 +10143,10 @@
       <c r="C83" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
+      <c r="D83" s="61"/>
+      <c r="E83" s="61"/>
+      <c r="F83" s="61"/>
+      <c r="G83" s="61"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
@@ -10158,31 +10158,23 @@
       <c r="C84" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="D47:G47"/>
@@ -10199,16 +10191,24 @@
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
@@ -10239,37 +10239,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="62"/>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="62"/>
+      <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
+      <c r="AC2" s="62"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">

--- a/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
+++ b/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB2E05-4AF6-4626-8BED-4BD5DD6199B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <sheet name="账单模块" sheetId="79" r:id="rId6"/>
     <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,291 +35,291 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="507">
   <si>
     <t>负责人名</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>系统名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>文档说明</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>文档修订记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修订内容（后续任何修改都需要记录到此）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>说明：文档内容尽量用Excel来完成（按模板），并同步下单至WorkTime。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>初稿</t>
   </si>
   <si>
     <t>HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Def.up</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HP.base</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Atk.base</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Def.base</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>星级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>突破</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>品质</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Atk.up</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Atk</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Def</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HP.up</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AttrBonus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>能力商店项目设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>token</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mec 边缘云平台自助系统接口设计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>褚智勇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mec边缘云平台客户自助系统的接口设计。该系统包含用户模块，产品方案模块的查询模块，订单申请查看和取消的模块，业务的查看与终止，账单的查看。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>与浪潮人员交流后，初步制定所需接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>参数中文名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>参数英文名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否必须</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>约束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>字段说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
     <t>非空</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>非空,长度小于20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输出参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>请求结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>result</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Token令牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>token</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接口名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户级别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>专属客服经理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>userName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>customLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>am</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户开户时的姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">用户级别：
 0 普通客户  1 一级客户  2 二级客户  3 三级客户  5 潜在大客户
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>专属客服经理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>边缘计算节点类型</t>
@@ -400,27 +401,27 @@
   </si>
   <si>
     <t>字段说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>am</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>custId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户经理</t>
@@ -442,67 +443,67 @@
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>用户模块处理用户的登录操作，以及拉取用户的基础信息。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品方案查询模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>该模块支持产品和方案的查询。
 #1 产品列表查询    #2 产品详情查询   #3 在产品下的方案查询  #4产品方案详情查询</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetProductList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取产品列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>登录成功的token，用于其他行为的鉴权。服务端可从Token解出UserId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>登录成功的token，用于其他行为的鉴权。服务端可从Token解出UserId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>页码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>否</t>
   </si>
   <si>
     <t>分页Id，不填则表示获取第一页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pageId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分页大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -518,67 +519,67 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>标签</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tags</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>标签数组，用,分隔。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入用户名和密码，返回登录结果和token令牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>传入标签数组，返回符合标签的产品列表的分页数据，个标签间逻辑与关系。例如传入a,b。则表示产品必须同时包含标签a和标签b</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>字段说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品显示名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输出参数-数组元素</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方案列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输出参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总条数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -594,7 +595,7 @@
       </rPr>
       <t>otal</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -610,15 +611,15 @@
       </rPr>
       <t>nteger</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品总条数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分页大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -634,115 +635,115 @@
       </rPr>
       <t>ageSize</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pageSize</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>每页多少条数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json数组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品列表数据，Json数组格式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>showName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json数组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>programList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方案Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方案显示名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方案简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>charge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetProductDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取产品详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>传入产品Id，获取产品详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -758,75 +759,75 @@
       </rPr>
       <t>ong</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Param</t>
   </si>
   <si>
     <t>产品的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>价格信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>传入方案Id，获取方案详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>该模块支持订单的下单和订单的查询。
 #1 订单申请  #2 订单列表查询  #3 订单撤销</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ApplyOder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建一个业务申请的订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申请订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方案Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>programId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>programId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Body</t>
@@ -836,99 +837,99 @@
   </si>
   <si>
     <t>Header</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申请方案的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nodeId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申请节点的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所在地Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>placeId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申请业务所在地Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>响应码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1表示订单成功创建，2表示订单创建不成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>errMsg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建不成功，则显示不成功的原因</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ListOrder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>列出订单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>orderDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分页Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分页Id，不填默认第一页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -944,7 +945,7 @@
       </rPr>
       <t>rderId</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -960,19 +961,19 @@
       </rPr>
       <t>ong</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输出参数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -988,264 +989,264 @@
       </rPr>
       <t>reateTime</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单方案Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>programId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LocalDateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单对应方案的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单的创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>显示订单详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数据个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分页大小</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单列表数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cnt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数据个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分页数据，数组，数组项如下表  输出参数-订单列表项 所示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>审核员Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>审核员名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>审核员联系方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>assessorId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单对应方案的名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单方案名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>programName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单产品Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单产品名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单对应产品的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单对应产品的名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ecNodes</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所在地Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理订单审核员ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理订单审核员名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>assessorName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>assessorTel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理订单审核员联系方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>申请节点数据，数据格式在【用户模块】</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品列表项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>concelOrder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在订单状态处于1申请中，2审核中，3未通过时，可以申请撤掉订单。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>响应码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1表示撤销申请提交成功，2表示该状态的订单无法撤销，3表示没有找到该订单Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务模块</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1个订单审核通过后，会生成一个业务。
 该模块支持业务的查询和终止申请。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ListService</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查看服务列表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拉取服务列表的分页数据。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在第几页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>第几页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pageId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务列表数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>module</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1261,39 +1262,39 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方案名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方案Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>开通时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>programName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>createTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LocalDateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetServiceDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1309,7 +1310,7 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1325,63 +1326,63 @@
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户合同号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>contractId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>contractName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mainServiceType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mainServiceId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主业务类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主业务Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>见产品方案查询模块，GetProductDetail，module ： 资费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0.免费 1.按月付费 2. 一次性付费 3. 流量付费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1397,83 +1398,83 @@
       </rPr>
       <t>um</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type为3时，表示流量的量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费的状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务所在地信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>placeInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>nodeInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>应用包ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>packageId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1489,139 +1490,139 @@
       </rPr>
       <t>nteger</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品来源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0：应用服务；1：专供一体机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>0：自有产品；1：合作产品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>productSource</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取方案详情</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetProgramDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Module</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单列表数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所在地信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>专属节点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ecNode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>专属节点，数组，元素类型为ecNode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>客户经理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所在地信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>placeInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>placeInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务所在省</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>provinceName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务所在地市</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cityName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务一级末梢区域区县</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>gdCountyName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务所在省编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>provinceId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>业务所在地市编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cityId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>gdCountyId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>gdCountyId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>地点Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>chargeStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>chargeStatus</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1637,63 +1638,63 @@
       </rPr>
       <t>. 已付款，2. 待支付，3.欠费</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>交付团队</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>onHireTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计费开始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>deadTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计费截止时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>超过该时间未支付则服务进入欠费状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LocalDataTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下次付费时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>monthPayTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>按月支付模式下，下个月付费的时间点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1709,7 +1710,7 @@
       </rPr>
       <t>. 服务中，2. 终止中，3. 已终止，4. 欠费暂停服务</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节点信息</t>
@@ -1719,15 +1720,15 @@
   </si>
   <si>
     <t>TerminateService</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>停止服务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>响应码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1743,7 +1744,7 @@
       </rPr>
       <t>ode</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1759,7 +1760,7 @@
       </rPr>
       <t>nteger</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1775,15 +1776,15 @@
       </rPr>
       <t>.表示申请成功，2表示无法申请终止</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取本月账单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1799,154 +1800,154 @@
       </rPr>
       <t>erviceId</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>要查询的服务的Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费截止日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账单状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>授权起始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>授权结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>serviceId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>totalPrice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>beginTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>endTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>deadline</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1. 一次性付费，2. 按月付费，3. 流量付费 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>flux</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>流量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetAllBills</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查看特定服务账单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetBillByServiceId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>子账单数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bills</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>子账单数据，Json数组，数据项为bill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账单数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>子账单数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>账单模块，提供账单查询功能以及对应的支付链接跳转功能
 包含接口如下：
 1. 特定服务本月账单查询  2. 本月账单查询  3. 历史支付凭据账单查询  4. 特定服务支付链接生成   5. 所有账单支付链接生成  
 跳转支付暂不实现。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分页数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>要查询的服务的Id，默认为1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>起始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>截止时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1962,7 +1963,7 @@
       </rPr>
       <t>eginTime</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1978,7 +1979,7 @@
       </rPr>
       <t>ndTime</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1994,15 +1995,15 @@
       </rPr>
       <t>ocalDateTime</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查询起始时间，不填表示不做筛选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查询截止时间，不填表示当前时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2018,11 +2019,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>条目数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2038,103 +2039,103 @@
       </rPr>
       <t>nteger</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>条目数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json数组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json数组，付费凭证集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>invoice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发票Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费凭证</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发票集合</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>付费类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>pay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实际付费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>授权起始时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>授权结束时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LocalDateTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>page</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>查询历史支付凭据的分页数据，支持按时间筛选，支持按服务筛选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>serviceId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务Id，不填则表示不进行服务筛选</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2150,15 +2151,15 @@
       </rPr>
       <t>2表示密码不正确，-1表示没有这个用户</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Post</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2174,39 +2175,39 @@
       </rPr>
       <t>oken，用于其他行为的鉴权</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接口</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GetUserInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接口名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>获取用户信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>请求方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Get</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>简介</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在Header中放置token，服务端从token中解析出UserId，获取对应客户的详细信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2222,106 +2223,106 @@
       </rPr>
       <t>son</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中文名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>英文名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Module</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单的状态，1. 申请中，2. 审核中，3. 未通过，4. 待确认，5. 已开通，6. 撤销中（已撤销的订单不显示）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>orderCharge</t>
   </si>
   <si>
     <t>orderCharge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单资费方案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>服务资费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>额外费用资费信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>serviceCharge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>extraCharge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SubModule</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>total</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>额外费用的总价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>价格明细</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>chargeDetail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>价格明细的数组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>chargeDetails</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>详解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2337,7 +2338,7 @@
       </rPr>
       <t>ame</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2353,7 +2354,7 @@
       </rPr>
       <t>escription</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2369,7 +2370,7 @@
       </rPr>
       <t>rice</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2385,7 +2386,7 @@
       </rPr>
       <t>nteger</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2401,76 +2402,83 @@
       </rPr>
       <t>tring</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>本条目的名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>本条目的详解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>本条目的价格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单的状态，1表示申请中，2表示审核中，3表示未通过，4表示待确认，5表示已开通，6表示撤销中（已撤销的订单不显示）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>订单在已通过状态下，用户可拉取到资费信息，此时用户可以确认订单，完成确认后服务正式开通。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1表示合同签订成功，2表示合同签订失败</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>签订不成功，则显示不成功的原因</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>signingContract</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>签订合同</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Byte[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>signData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>额外签名信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预留字段，未来可能放用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2982,76 +2990,76 @@
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" applyFont="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="7">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="8" applyFont="1">
@@ -3059,186 +3067,186 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="9" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="8" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="9" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="8" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="8" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="5">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接 2" xfId="10"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="11"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="英文标题" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3555,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3574,12 +3582,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -3588,10 +3596,10 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3602,26 +3610,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="49"/>
     </row>
     <row r="5" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="52"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -3630,10 +3638,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="47"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -3642,147 +3650,151 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="44"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -3795,18 +3807,14 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C4">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="迭代">
       <formula>NOT(ISERROR(SEARCH("迭代",C4)))</formula>
@@ -3819,7 +3827,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"草案,初稿,迭代,废弃"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3829,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3852,15 +3860,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -3868,15 +3876,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -3906,28 +3914,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
@@ -3995,15 +4003,15 @@
       <c r="G15" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
@@ -4094,26 +4102,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="62" t="s">
         <v>461</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -4160,15 +4168,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -4180,12 +4188,12 @@
       <c r="C33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="63" t="s">
+      <c r="D33" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
@@ -4197,12 +4205,12 @@
       <c r="C34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="D34" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -4214,12 +4222,12 @@
       <c r="C35" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="D35" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
@@ -4231,12 +4239,12 @@
       <c r="C36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
     </row>
     <row r="37" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
@@ -4248,12 +4256,12 @@
       <c r="C37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="D37" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
@@ -4265,12 +4273,12 @@
       <c r="C38" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
@@ -4282,12 +4290,12 @@
       <c r="C39" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
@@ -4317,12 +4325,12 @@
       <c r="C43" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
@@ -4334,10 +4342,10 @@
       <c r="C44" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
@@ -4349,10 +4357,10 @@
       <c r="C45" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
@@ -4364,10 +4372,10 @@
       <c r="C46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
@@ -4379,10 +4387,10 @@
       <c r="C47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
     </row>
     <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
@@ -4394,10 +4402,10 @@
       <c r="C48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
@@ -4409,10 +4417,10 @@
       <c r="C49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
@@ -4424,10 +4432,10 @@
       <c r="C50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
@@ -4457,12 +4465,12 @@
       <c r="C54" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D54" s="63" t="s">
+      <c r="D54" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
@@ -4474,10 +4482,10 @@
       <c r="C55" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
@@ -4489,10 +4497,10 @@
       <c r="C56" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="62"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4504,13 +4512,24 @@
       <c r="C57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="61"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:G28"/>
@@ -4527,24 +4546,13 @@
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="A17:G17"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D20 D14:D15 D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D20 D14:D15 D30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15 E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15 E30" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4554,7 +4562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4577,15 +4585,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -4593,15 +4601,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -4631,27 +4639,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -4761,15 +4769,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -4781,12 +4789,12 @@
       <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -4798,12 +4806,12 @@
       <c r="C20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -4815,12 +4823,12 @@
       <c r="C21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -4832,12 +4840,12 @@
       <c r="C22" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="70" t="s">
+      <c r="D22" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
     </row>
     <row r="24" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
@@ -4854,12 +4862,12 @@
       <c r="C25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -4871,10 +4879,10 @@
       <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
@@ -4886,10 +4894,10 @@
       <c r="C27" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -4925,26 +4933,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
@@ -5012,15 +5020,15 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -5032,12 +5040,12 @@
       <c r="C41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="63" t="s">
+      <c r="D41" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
     </row>
     <row r="42" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
@@ -5049,10 +5057,10 @@
       <c r="C42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
@@ -5064,10 +5072,10 @@
       <c r="C43" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -5091,12 +5099,12 @@
       <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
@@ -5108,10 +5116,10 @@
       <c r="C47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
@@ -5123,10 +5131,10 @@
       <c r="C48" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -5138,10 +5146,10 @@
       <c r="C49" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
@@ -5171,12 +5179,12 @@
       <c r="C53" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="63" t="s">
+      <c r="D53" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -5188,12 +5196,12 @@
       <c r="C54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="70"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -5205,12 +5213,12 @@
       <c r="C55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="65" t="s">
+      <c r="D55" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -5222,12 +5230,12 @@
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="65" t="s">
+      <c r="D56" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="70"/>
     </row>
     <row r="57" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5258,26 +5266,26 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="67"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -5345,15 +5353,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
@@ -5365,12 +5373,12 @@
       <c r="C70" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="63" t="s">
+      <c r="D70" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -5382,10 +5390,10 @@
       <c r="C71" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -5397,10 +5405,10 @@
       <c r="C72" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
@@ -5412,10 +5420,10 @@
       <c r="C73" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
@@ -5427,31 +5435,13 @@
       <c r="C74" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="D74:G74"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
@@ -5468,13 +5458,31 @@
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D70:G70"/>
     <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D27:G27"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D37:D38 D66:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D37:D38 D66:D67" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E37:E38 E66:E67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E37:E38 E66:E67" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5484,11 +5492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64:J64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5507,15 +5515,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -5523,15 +5531,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -5561,27 +5569,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -5691,15 +5699,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -5711,12 +5719,12 @@
       <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="63" t="s">
+      <c r="D19" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -5728,12 +5736,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -5745,12 +5753,12 @@
       <c r="C21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
     </row>
     <row r="23" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -5781,26 +5789,26 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
@@ -5889,15 +5897,15 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
@@ -5909,12 +5917,12 @@
       <c r="C37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
@@ -5926,12 +5934,12 @@
       <c r="C38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
@@ -5943,12 +5951,12 @@
       <c r="C39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="65" t="s">
+      <c r="D39" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
@@ -5960,12 +5968,12 @@
       <c r="C40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
@@ -5977,12 +5985,12 @@
       <c r="C41" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="65" t="s">
+      <c r="D41" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
@@ -6026,12 +6034,12 @@
       <c r="C46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="63" t="s">
+      <c r="D46" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
@@ -6043,12 +6051,12 @@
       <c r="C47" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
@@ -6060,12 +6068,12 @@
       <c r="C48" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="70" t="s">
+      <c r="D48" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -6077,12 +6085,12 @@
       <c r="C49" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="70" t="s">
+      <c r="D49" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
@@ -6094,12 +6102,12 @@
       <c r="C50" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
@@ -6111,12 +6119,12 @@
       <c r="C51" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="70" t="s">
+      <c r="D51" s="65" t="s">
         <v>467</v>
       </c>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6148,26 +6156,26 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -6235,15 +6243,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="62" t="s">
+      <c r="A64" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -6255,12 +6263,12 @@
       <c r="C65" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="63" t="s">
+      <c r="D65" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="63"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -6272,12 +6280,12 @@
       <c r="C66" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="65" t="s">
+      <c r="D66" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -6289,12 +6297,12 @@
       <c r="C67" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="70" t="s">
+      <c r="D67" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -6306,12 +6314,12 @@
       <c r="C68" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -6323,12 +6331,12 @@
       <c r="C69" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="70" t="s">
+      <c r="D69" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
@@ -6340,12 +6348,12 @@
       <c r="C70" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D70" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -6357,12 +6365,12 @@
       <c r="C71" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="70" t="s">
+      <c r="D71" s="65" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -6374,12 +6382,12 @@
       <c r="C72" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="70" t="s">
+      <c r="D72" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
@@ -6391,12 +6399,12 @@
       <c r="C73" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D73" s="70" t="s">
+      <c r="D73" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -6408,12 +6416,12 @@
       <c r="C74" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="D74" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -6425,12 +6433,12 @@
       <c r="C75" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="70" t="s">
+      <c r="D75" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -6442,12 +6450,12 @@
       <c r="C76" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
@@ -6459,12 +6467,12 @@
       <c r="C77" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="65" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
@@ -6476,12 +6484,12 @@
       <c r="C78" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="70" t="s">
+      <c r="D78" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
     </row>
     <row r="79" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
@@ -6493,21 +6501,21 @@
       <c r="C79" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="70" t="s">
+      <c r="D79" s="65" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
     </row>
     <row r="80" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
@@ -6532,12 +6540,12 @@
       <c r="C84" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="63" t="s">
+      <c r="D84" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="63"/>
-      <c r="F84" s="63"/>
-      <c r="G84" s="63"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
     </row>
     <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
@@ -6549,10 +6557,10 @@
       <c r="C85" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
     </row>
     <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
@@ -6564,10 +6572,10 @@
       <c r="C86" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
@@ -6579,10 +6587,10 @@
       <c r="C87" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
@@ -6594,10 +6602,10 @@
       <c r="C88" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
     </row>
     <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
@@ -6609,10 +6617,10 @@
       <c r="C89" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="61"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="62"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
@@ -6624,10 +6632,10 @@
       <c r="C90" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="61"/>
-      <c r="G90" s="61"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="62"/>
     </row>
     <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
@@ -6639,10 +6647,10 @@
       <c r="C91" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="61"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="62"/>
     </row>
     <row r="92" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6668,12 +6676,12 @@
       <c r="C95" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="63" t="s">
+      <c r="D95" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63"/>
-      <c r="G95" s="63"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="64"/>
     </row>
     <row r="96" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
@@ -6795,12 +6803,12 @@
       <c r="C106" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="63" t="s">
+      <c r="D106" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="63"/>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="64"/>
+      <c r="G106" s="64"/>
     </row>
     <row r="107" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
@@ -6812,10 +6820,10 @@
       <c r="C107" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="69"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="69"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="70"/>
     </row>
     <row r="108" spans="1:7" s="40" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
@@ -6827,10 +6835,10 @@
       <c r="C108" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="69"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="69"/>
+      <c r="F108" s="69"/>
+      <c r="G108" s="70"/>
     </row>
     <row r="109" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6856,12 +6864,12 @@
       <c r="C112" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="63" t="s">
+      <c r="D112" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="63"/>
-      <c r="F112" s="63"/>
-      <c r="G112" s="63"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="64"/>
     </row>
     <row r="113" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
@@ -6873,12 +6881,12 @@
       <c r="C113" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D113" s="65" t="s">
+      <c r="D113" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="69"/>
+      <c r="E113" s="69"/>
+      <c r="F113" s="69"/>
+      <c r="G113" s="70"/>
     </row>
     <row r="114" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
@@ -6890,12 +6898,12 @@
       <c r="C114" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="65" t="s">
+      <c r="D114" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="69"/>
+      <c r="E114" s="69"/>
+      <c r="F114" s="69"/>
+      <c r="G114" s="70"/>
     </row>
     <row r="115" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
@@ -6907,12 +6915,12 @@
       <c r="C115" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="65" t="s">
+      <c r="D115" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="69"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="70"/>
     </row>
     <row r="116" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6938,12 +6946,12 @@
       <c r="C119" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="63" t="s">
+      <c r="D119" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E119" s="63"/>
-      <c r="F119" s="63"/>
-      <c r="G119" s="63"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="64"/>
+      <c r="G119" s="64"/>
     </row>
     <row r="120" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
@@ -6955,12 +6963,12 @@
       <c r="C120" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D120" s="65" t="s">
+      <c r="D120" s="66" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="69"/>
+      <c r="E120" s="69"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="70"/>
     </row>
     <row r="121" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
@@ -6972,12 +6980,12 @@
       <c r="C121" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D121" s="65" t="s">
+      <c r="D121" s="66" t="s">
         <v>483</v>
       </c>
-      <c r="E121" s="68"/>
-      <c r="F121" s="68"/>
-      <c r="G121" s="69"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="70"/>
     </row>
     <row r="122" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7003,12 +7011,12 @@
       <c r="C125" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="63" t="s">
+      <c r="D125" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E125" s="63"/>
-      <c r="F125" s="63"/>
-      <c r="G125" s="63"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="64"/>
+      <c r="G125" s="64"/>
     </row>
     <row r="126" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
@@ -7020,12 +7028,12 @@
       <c r="C126" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="D126" s="65" t="s">
+      <c r="D126" s="66" t="s">
         <v>494</v>
       </c>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="67"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="67"/>
+      <c r="G126" s="68"/>
     </row>
     <row r="127" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
@@ -7037,12 +7045,12 @@
       <c r="C127" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="D127" s="65" t="s">
+      <c r="D127" s="66" t="s">
         <v>495</v>
       </c>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="67"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="67"/>
+      <c r="G127" s="68"/>
     </row>
     <row r="128" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
@@ -7054,12 +7062,12 @@
       <c r="C128" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D128" s="65" t="s">
+      <c r="D128" s="66" t="s">
         <v>496</v>
       </c>
-      <c r="E128" s="66"/>
-      <c r="F128" s="66"/>
-      <c r="G128" s="67"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="67"/>
+      <c r="G128" s="68"/>
     </row>
     <row r="129" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7092,27 +7100,27 @@
       </c>
     </row>
     <row r="135" spans="1:7" s="40" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="65" t="s">
+      <c r="A135" s="66" t="s">
         <v>498</v>
       </c>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="66"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="66"/>
-      <c r="G135" s="67"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="67"/>
+      <c r="G135" s="68"/>
     </row>
     <row r="136" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="62" t="s">
+      <c r="A137" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="62"/>
-      <c r="C137" s="62"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="62"/>
-      <c r="G137" s="62"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="63"/>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="63"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
@@ -7202,15 +7210,15 @@
     </row>
     <row r="142" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="62" t="s">
+      <c r="A143" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="62"/>
-      <c r="C143" s="62"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="62"/>
+      <c r="B143" s="63"/>
+      <c r="C143" s="63"/>
+      <c r="D143" s="63"/>
+      <c r="E143" s="63"/>
+      <c r="F143" s="63"/>
+      <c r="G143" s="63"/>
     </row>
     <row r="144" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
@@ -7222,12 +7230,12 @@
       <c r="C144" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="63" t="s">
+      <c r="D144" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="63"/>
-      <c r="F144" s="63"/>
-      <c r="G144" s="63"/>
+      <c r="E144" s="64"/>
+      <c r="F144" s="64"/>
+      <c r="G144" s="64"/>
     </row>
     <row r="145" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
@@ -7239,12 +7247,12 @@
       <c r="C145" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="65" t="s">
+      <c r="D145" s="66" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="66"/>
-      <c r="F145" s="66"/>
-      <c r="G145" s="67"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="67"/>
+      <c r="G145" s="68"/>
     </row>
     <row r="146" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
@@ -7256,12 +7264,12 @@
       <c r="C146" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="70" t="s">
+      <c r="D146" s="65" t="s">
         <v>500</v>
       </c>
-      <c r="E146" s="61"/>
-      <c r="F146" s="61"/>
-      <c r="G146" s="61"/>
+      <c r="E146" s="62"/>
+      <c r="F146" s="62"/>
+      <c r="G146" s="62"/>
     </row>
     <row r="147" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7294,26 +7302,26 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="65" t="s">
+      <c r="A153" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="66"/>
-      <c r="C153" s="66"/>
-      <c r="D153" s="66"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="67"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="67"/>
+      <c r="G153" s="68"/>
     </row>
     <row r="155" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B155" s="62"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="62"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="63"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
     </row>
     <row r="156" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
@@ -7381,15 +7389,15 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="62" t="s">
+      <c r="A160" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="B160" s="62"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="62"/>
-      <c r="E160" s="62"/>
-      <c r="F160" s="62"/>
-      <c r="G160" s="62"/>
+      <c r="B160" s="63"/>
+      <c r="C160" s="63"/>
+      <c r="D160" s="63"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="63"/>
+      <c r="G160" s="63"/>
     </row>
     <row r="161" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
@@ -7401,12 +7409,12 @@
       <c r="C161" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="63" t="s">
+      <c r="D161" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="63"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
+      <c r="E161" s="64"/>
+      <c r="F161" s="64"/>
+      <c r="G161" s="64"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
@@ -7418,15 +7426,81 @@
       <c r="C162" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D162" s="65" t="s">
+      <c r="D162" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="E162" s="66"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="67"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="67"/>
+      <c r="G162" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="D144:G144"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="D121:G121"/>
     <mergeCell ref="D162:G162"/>
     <mergeCell ref="A160:G160"/>
     <mergeCell ref="D161:G161"/>
@@ -7443,79 +7517,13 @@
     <mergeCell ref="D89:G89"/>
     <mergeCell ref="D90:G90"/>
     <mergeCell ref="D91:G91"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="D144:G144"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D32:D34 D61:D62 D157:D158 D139:D141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D32:D34 D61:D62 D157:D158 D139:D141" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E32:E34 E61:E62 E157:E158 E23:E24 E139:E141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E32:E34 E61:E62 E157:E158 E23:E24 E139:E141" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7525,7 +7533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -7548,15 +7556,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -7564,15 +7572,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -7602,27 +7610,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -7720,15 +7728,15 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
@@ -7757,12 +7765,12 @@
       <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -7774,12 +7782,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="66" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -7791,12 +7799,12 @@
       <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
@@ -7808,12 +7816,12 @@
       <c r="C22" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
@@ -7978,15 +7986,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
@@ -7998,15 +8006,15 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
@@ -8083,15 +8091,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
@@ -8150,12 +8158,12 @@
       <c r="C48" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -8227,12 +8235,12 @@
       <c r="C53" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -8244,12 +8252,12 @@
       <c r="C54" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
     </row>
     <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -8336,12 +8344,12 @@
       <c r="C60" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="61" t="s">
+      <c r="D60" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
@@ -8353,12 +8361,12 @@
       <c r="C61" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D61" s="70" t="s">
+      <c r="D61" s="65" t="s">
         <v>324</v>
       </c>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
@@ -8412,12 +8420,12 @@
       <c r="C66" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -8429,12 +8437,12 @@
       <c r="C67" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D67" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="69"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="70"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -8446,12 +8454,12 @@
       <c r="C68" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="69"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="70"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -8463,12 +8471,12 @@
       <c r="C69" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="69"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="70"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
@@ -8512,12 +8520,12 @@
       <c r="C73" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="63" t="s">
+      <c r="D73" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="63"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -8529,12 +8537,12 @@
       <c r="C74" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="D74" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -8546,10 +8554,10 @@
       <c r="C75" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -8561,12 +8569,12 @@
       <c r="C76" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
@@ -8578,12 +8586,12 @@
       <c r="C77" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
@@ -8628,12 +8636,12 @@
       <c r="C81" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="63" t="s">
+      <c r="D81" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="63"/>
-      <c r="F81" s="63"/>
-      <c r="G81" s="63"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="64"/>
+      <c r="G81" s="64"/>
     </row>
     <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="29" t="s">
@@ -8645,10 +8653,10 @@
       <c r="C82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
@@ -8660,10 +8668,10 @@
       <c r="C83" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="29" t="s">
@@ -8675,10 +8683,10 @@
       <c r="C84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
     </row>
     <row r="85" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29" t="s">
@@ -8690,10 +8698,10 @@
       <c r="C85" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="62"/>
     </row>
     <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="29" t="s">
@@ -8705,10 +8713,10 @@
       <c r="C86" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="61"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="62"/>
     </row>
     <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="29" t="s">
@@ -8720,10 +8728,10 @@
       <c r="C87" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="62"/>
     </row>
     <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="29" t="s">
@@ -8735,10 +8743,10 @@
       <c r="C88" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="61"/>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61"/>
-      <c r="G88" s="61"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
     </row>
     <row r="90" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
@@ -8763,12 +8771,12 @@
       <c r="C92" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="63" t="s">
+      <c r="D92" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="64"/>
+      <c r="G92" s="64"/>
     </row>
     <row r="93" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
@@ -8898,15 +8906,15 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="68"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D107" s="77"/>
@@ -8915,15 +8923,15 @@
       <c r="G107" s="77"/>
     </row>
     <row r="108" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="62" t="s">
+      <c r="A108" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="62"/>
-      <c r="F108" s="62"/>
-      <c r="G108" s="62"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="63"/>
+      <c r="G108" s="63"/>
     </row>
     <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
@@ -8991,15 +8999,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="62"/>
-      <c r="C113" s="62"/>
-      <c r="D113" s="62"/>
-      <c r="E113" s="62"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="62"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="63"/>
+      <c r="D113" s="63"/>
+      <c r="E113" s="63"/>
+      <c r="F113" s="63"/>
+      <c r="G113" s="63"/>
     </row>
     <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
@@ -9028,34 +9036,47 @@
       <c r="C115" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="70" t="s">
+      <c r="D115" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="61"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="61"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A44:G44"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D57:G57"/>
@@ -9072,45 +9093,32 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="A106:G106"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E42 E13:E15 E89 E100 E110:E111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E42 E13:E15 E89 E100 E110:E111" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D42 D13:D15 D89 D100 D110:D111">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D42 D13:D15 D89 D100 D110:D111" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9120,7 +9128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9143,15 +9151,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -9159,15 +9167,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="65" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -9197,27 +9205,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
@@ -9294,15 +9302,15 @@
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -9331,10 +9339,10 @@
       <c r="C18" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
@@ -9346,12 +9354,12 @@
       <c r="C19" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
@@ -9363,10 +9371,10 @@
       <c r="C20" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
@@ -9378,10 +9386,10 @@
       <c r="C21" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
@@ -9393,10 +9401,10 @@
       <c r="C22" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
@@ -9408,10 +9416,10 @@
       <c r="C23" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
@@ -9423,10 +9431,10 @@
       <c r="C24" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
@@ -9465,27 +9473,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -9541,15 +9549,15 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
@@ -9578,10 +9586,10 @@
       <c r="C38" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="67"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
@@ -9593,10 +9601,10 @@
       <c r="C39" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="67"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
@@ -9608,12 +9616,12 @@
       <c r="C40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="65" t="s">
+      <c r="D40" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
@@ -9643,12 +9651,12 @@
       <c r="C44" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
@@ -9660,10 +9668,10 @@
       <c r="C45" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="67"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
@@ -9675,10 +9683,10 @@
       <c r="C46" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="67"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
@@ -9690,12 +9698,12 @@
       <c r="C47" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="65" t="s">
+      <c r="D47" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="70"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
@@ -9707,10 +9715,10 @@
       <c r="C48" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="65"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="70"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
@@ -9722,10 +9730,10 @@
       <c r="C49" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="65"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
@@ -9737,10 +9745,10 @@
       <c r="C50" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="69"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="70"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
@@ -9752,10 +9760,10 @@
       <c r="C51" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="70"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
@@ -9767,10 +9775,10 @@
       <c r="C52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="70"/>
     </row>
     <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -9800,26 +9808,26 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="66" t="s">
         <v>446</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="62" t="s">
+      <c r="A61" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
@@ -9950,15 +9958,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="62" t="s">
+      <c r="A69" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
@@ -9987,12 +9995,12 @@
       <c r="C71" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="68"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
@@ -10004,12 +10012,12 @@
       <c r="C72" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="68"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
@@ -10034,12 +10042,12 @@
       <c r="C76" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="63" t="s">
+      <c r="D76" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
@@ -10051,10 +10059,10 @@
       <c r="C77" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D77" s="61"/>
-      <c r="E77" s="61"/>
-      <c r="F77" s="61"/>
-      <c r="G77" s="61"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
@@ -10066,10 +10074,10 @@
       <c r="C78" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
@@ -10081,10 +10089,10 @@
       <c r="C79" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="61"/>
-      <c r="F79" s="61"/>
-      <c r="G79" s="61"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
@@ -10096,10 +10104,10 @@
       <c r="C80" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
@@ -10111,12 +10119,12 @@
       <c r="C81" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D81" s="65" t="s">
+      <c r="D81" s="66" t="s">
         <v>397</v>
       </c>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="70"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
@@ -10128,10 +10136,10 @@
       <c r="C82" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="61"/>
-      <c r="G82" s="61"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
@@ -10143,10 +10151,10 @@
       <c r="C83" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="61"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="62"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
@@ -10158,23 +10166,31 @@
       <c r="C84" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
-      <c r="G84" s="61"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="D47:G47"/>
@@ -10191,31 +10207,23 @@
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D34 D63:D67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D34 D63:D67" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14 E34 E63:E67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14 E34 E63:E67" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10225,7 +10233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:AD223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10239,37 +10247,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -31053,7 +31061,7 @@
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="R2:AC2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
+++ b/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB2E05-4AF6-4626-8BED-4BD5DD6199B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -14,9 +13,11 @@
     <sheet name="订单草稿" sheetId="77" r:id="rId4"/>
     <sheet name="订单模块" sheetId="78" r:id="rId5"/>
     <sheet name="账单模块" sheetId="79" r:id="rId6"/>
-    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId7"/>
+    <sheet name="产品列表" sheetId="80" r:id="rId7"/>
+    <sheet name="产品详情" sheetId="81" r:id="rId8"/>
+    <sheet name="属性汇总" sheetId="64" state="hidden" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="537">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -2460,11 +2461,240 @@
     <t>预留字段，未来可能放用户</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>一.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的与功能概要</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>向联通M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平台提供产品查询能力，扩充平台功能。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>让用户更高频次的使用联通平台软件功能，固化用户，方便日后做其他功能时的用户引流。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>现状</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮那边已经有一个较完善的商城系统，我们这边人力有限，故简单制作。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能概述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户输入标签，返回相关的产品列表。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型图</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品列表项包含内容</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名+链接，点击产品名进入产品详情界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品标签</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果缺失，则显示默认文字，如产品描述缺失</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>多个标签，用;分隔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击查找按钮，列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输入标签后，输入框右上方展现一个x，点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>x清空输入框，并重新搜索。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击搜索，展现同时包含输入标签的产品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>标签可以为商城中的节点名，比如安全-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;网络安全</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3018,7 +3248,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3123,6 +3353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3233,20 +3464,24 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="9" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1"/>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="英文标题" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="超链接 2" xfId="10"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="11"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3299,6 +3534,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>646069</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>170620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="2124075"/>
+          <a:ext cx="13047619" cy="6638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3563,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3582,12 +3860,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -3596,10 +3874,10 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3610,26 +3888,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -3638,10 +3916,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -3650,138 +3928,138 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="58"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="58"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="58"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="58"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="58"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="58"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -3827,7 +4105,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>"草案,初稿,迭代,废弃"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3837,7 +4115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3860,15 +4138,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -3876,15 +4154,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -3914,28 +4192,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
@@ -4003,15 +4281,15 @@
       <c r="G15" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
@@ -4102,26 +4380,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -4168,15 +4446,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -4188,12 +4466,12 @@
       <c r="C33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
@@ -4205,12 +4483,12 @@
       <c r="C34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -4222,12 +4500,12 @@
       <c r="C35" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
@@ -4239,12 +4517,12 @@
       <c r="C36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="62" t="s">
+      <c r="D36" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
@@ -4256,12 +4534,12 @@
       <c r="C37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="62" t="s">
+      <c r="D37" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
@@ -4273,12 +4551,12 @@
       <c r="C38" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="63" t="s">
         <v>333</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
@@ -4290,12 +4568,12 @@
       <c r="C39" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
@@ -4325,12 +4603,12 @@
       <c r="C43" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
@@ -4342,10 +4620,10 @@
       <c r="C44" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="62"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
@@ -4357,10 +4635,10 @@
       <c r="C45" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
@@ -4372,10 +4650,10 @@
       <c r="C46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
@@ -4387,10 +4665,10 @@
       <c r="C47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
@@ -4402,10 +4680,10 @@
       <c r="C48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
@@ -4417,10 +4695,10 @@
       <c r="C49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
@@ -4432,10 +4710,10 @@
       <c r="C50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
@@ -4465,12 +4743,12 @@
       <c r="C54" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
@@ -4482,10 +4760,10 @@
       <c r="C55" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
@@ -4497,10 +4775,10 @@
       <c r="C56" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -4512,10 +4790,10 @@
       <c r="C57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4549,10 +4827,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D20 D14:D15 D30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19:D20 D14:D15 D30">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15 E30" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14:E15 E30">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4562,7 +4840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4585,15 +4863,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -4601,15 +4879,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -4639,27 +4917,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -4769,15 +5047,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -4789,12 +5067,12 @@
       <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -4806,12 +5084,12 @@
       <c r="C20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -4823,12 +5101,12 @@
       <c r="C21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -4840,12 +5118,12 @@
       <c r="C22" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
     </row>
     <row r="24" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
@@ -4862,12 +5140,12 @@
       <c r="C25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -4879,10 +5157,10 @@
       <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
@@ -4894,10 +5172,10 @@
       <c r="C27" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -4933,26 +5211,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="A33" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
     </row>
     <row r="36" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
@@ -5020,15 +5298,15 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="63" t="s">
+      <c r="A40" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -5040,12 +5318,12 @@
       <c r="C41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
     </row>
     <row r="42" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
@@ -5057,10 +5335,10 @@
       <c r="C42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
@@ -5072,10 +5350,10 @@
       <c r="C43" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -5099,12 +5377,12 @@
       <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
@@ -5116,10 +5394,10 @@
       <c r="C47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
@@ -5131,10 +5409,10 @@
       <c r="C48" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -5146,10 +5424,10 @@
       <c r="C49" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
@@ -5179,12 +5457,12 @@
       <c r="C53" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="64"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -5196,12 +5474,12 @@
       <c r="C54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="66" t="s">
+      <c r="D54" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="71"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -5213,12 +5491,12 @@
       <c r="C55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="66" t="s">
+      <c r="D55" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -5230,12 +5508,12 @@
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="71"/>
     </row>
     <row r="57" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5266,26 +5544,26 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="66" t="s">
+      <c r="A62" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="68"/>
+      <c r="G62" s="69"/>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -5353,15 +5631,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
@@ -5373,12 +5651,12 @@
       <c r="C70" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="64" t="s">
+      <c r="D70" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -5390,10 +5668,10 @@
       <c r="C71" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -5405,10 +5683,10 @@
       <c r="C72" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
@@ -5420,10 +5698,10 @@
       <c r="C73" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
@@ -5435,10 +5713,10 @@
       <c r="C74" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -5479,10 +5757,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D37:D38 D66:D67" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D37:D38 D66:D67">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E37:E38 E66:E67" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E37:E38 E66:E67">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5492,11 +5770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5515,15 +5793,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -5531,15 +5809,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -5569,27 +5847,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -5699,15 +5977,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -5719,12 +5997,12 @@
       <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -5736,12 +6014,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -5753,12 +6031,12 @@
       <c r="C21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="66" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
     </row>
     <row r="23" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -5789,26 +6067,26 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
+      <c r="A28" s="67" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69"/>
     </row>
     <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
@@ -5897,15 +6175,15 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
@@ -5917,12 +6195,12 @@
       <c r="C37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
@@ -5934,12 +6212,12 @@
       <c r="C38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
@@ -5951,12 +6229,12 @@
       <c r="C39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
@@ -5968,12 +6246,12 @@
       <c r="C40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="69"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
@@ -5985,12 +6263,12 @@
       <c r="C41" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="69"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
@@ -6034,12 +6312,12 @@
       <c r="C46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="64"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
@@ -6051,12 +6329,12 @@
       <c r="C47" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="69"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
@@ -6068,12 +6346,12 @@
       <c r="C48" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -6085,12 +6363,12 @@
       <c r="C49" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
@@ -6102,12 +6380,12 @@
       <c r="C50" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
@@ -6119,12 +6397,12 @@
       <c r="C51" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="65" t="s">
+      <c r="D51" s="66" t="s">
         <v>467</v>
       </c>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6156,26 +6434,26 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="66" t="s">
+      <c r="A57" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="69"/>
     </row>
     <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="63" t="s">
+      <c r="A59" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -6243,15 +6521,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="63" t="s">
+      <c r="A64" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -6263,12 +6541,12 @@
       <c r="C65" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -6280,12 +6558,12 @@
       <c r="C66" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="66" t="s">
+      <c r="D66" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="68"/>
+      <c r="G66" s="69"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -6297,12 +6575,12 @@
       <c r="C67" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D67" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -6314,12 +6592,12 @@
       <c r="C68" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -6331,12 +6609,12 @@
       <c r="C69" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="65" t="s">
+      <c r="D69" s="66" t="s">
         <v>497</v>
       </c>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
@@ -6348,12 +6626,12 @@
       <c r="C70" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="65" t="s">
+      <c r="D70" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -6365,12 +6643,12 @@
       <c r="C71" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -6382,12 +6660,12 @@
       <c r="C72" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="66" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
@@ -6399,12 +6677,12 @@
       <c r="C73" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D73" s="65" t="s">
+      <c r="D73" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="63"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -6416,12 +6694,12 @@
       <c r="C74" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -6433,12 +6711,12 @@
       <c r="C75" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="65" t="s">
+      <c r="D75" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -6450,12 +6728,12 @@
       <c r="C76" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
@@ -6467,12 +6745,12 @@
       <c r="C77" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="65" t="s">
+      <c r="D77" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
@@ -6484,12 +6762,12 @@
       <c r="C78" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="65" t="s">
+      <c r="D78" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
     </row>
     <row r="79" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
@@ -6501,21 +6779,21 @@
       <c r="C79" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="65" t="s">
+      <c r="D79" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
     </row>
     <row r="80" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
@@ -6540,12 +6818,12 @@
       <c r="C84" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
     </row>
     <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
@@ -6557,10 +6835,10 @@
       <c r="C85" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
     </row>
     <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
@@ -6572,10 +6850,10 @@
       <c r="C86" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
@@ -6587,10 +6865,10 @@
       <c r="C87" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
@@ -6602,10 +6880,10 @@
       <c r="C88" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
     </row>
     <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
@@ -6617,10 +6895,10 @@
       <c r="C89" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="62"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
@@ -6632,10 +6910,10 @@
       <c r="C90" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
     </row>
     <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
@@ -6647,10 +6925,10 @@
       <c r="C91" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
     </row>
     <row r="92" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6676,12 +6954,12 @@
       <c r="C95" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="64" t="s">
+      <c r="D95" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
     </row>
     <row r="96" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
@@ -6691,10 +6969,10 @@
         <v>210</v>
       </c>
       <c r="C96" s="19"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="73"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="74"/>
     </row>
     <row r="97" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27" t="s">
@@ -6704,10 +6982,10 @@
         <v>339</v>
       </c>
       <c r="C97" s="19"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="73"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="74"/>
     </row>
     <row r="98" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
@@ -6717,10 +6995,10 @@
         <v>341</v>
       </c>
       <c r="C98" s="19"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="74"/>
     </row>
     <row r="99" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
@@ -6730,10 +7008,10 @@
         <v>343</v>
       </c>
       <c r="C99" s="19"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="73"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="74"/>
     </row>
     <row r="100" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27" t="s">
@@ -6743,10 +7021,10 @@
         <v>345</v>
       </c>
       <c r="C100" s="19"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="72"/>
-      <c r="F100" s="72"/>
-      <c r="G100" s="73"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="73"/>
+      <c r="G100" s="74"/>
     </row>
     <row r="101" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
@@ -6756,10 +7034,10 @@
         <v>347</v>
       </c>
       <c r="C101" s="19"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="72"/>
-      <c r="F101" s="72"/>
-      <c r="G101" s="73"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="73"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="74"/>
     </row>
     <row r="102" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="27" t="s">
@@ -6769,10 +7047,10 @@
         <v>349</v>
       </c>
       <c r="C102" s="19"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="72"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="73"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
+      <c r="G102" s="74"/>
     </row>
     <row r="103" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6803,12 +7081,12 @@
       <c r="C106" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="64" t="s">
+      <c r="D106" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
     </row>
     <row r="107" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
@@ -6820,10 +7098,10 @@
       <c r="C107" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D107" s="66"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="70"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="70"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="71"/>
     </row>
     <row r="108" spans="1:7" s="40" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
@@ -6835,10 +7113,10 @@
       <c r="C108" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D108" s="66"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="70"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="71"/>
     </row>
     <row r="109" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6864,12 +7142,12 @@
       <c r="C112" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="64" t="s">
+      <c r="D112" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="64"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
     </row>
     <row r="113" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
@@ -6881,12 +7159,12 @@
       <c r="C113" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D113" s="66" t="s">
+      <c r="D113" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="71"/>
     </row>
     <row r="114" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
@@ -6898,12 +7176,12 @@
       <c r="C114" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="66" t="s">
+      <c r="D114" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="70"/>
+      <c r="E114" s="70"/>
+      <c r="F114" s="70"/>
+      <c r="G114" s="71"/>
     </row>
     <row r="115" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
@@ -6915,12 +7193,12 @@
       <c r="C115" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="66" t="s">
+      <c r="D115" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="71"/>
     </row>
     <row r="116" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6946,12 +7224,12 @@
       <c r="C119" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="64" t="s">
+      <c r="D119" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
     </row>
     <row r="120" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
@@ -6963,12 +7241,12 @@
       <c r="C120" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D120" s="66" t="s">
+      <c r="D120" s="67" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="71"/>
     </row>
     <row r="121" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
@@ -6980,12 +7258,12 @@
       <c r="C121" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D121" s="66" t="s">
+      <c r="D121" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="70"/>
+      <c r="E121" s="70"/>
+      <c r="F121" s="70"/>
+      <c r="G121" s="71"/>
     </row>
     <row r="122" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7011,12 +7289,12 @@
       <c r="C125" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="64" t="s">
+      <c r="D125" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E125" s="64"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
     </row>
     <row r="126" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
@@ -7028,12 +7306,12 @@
       <c r="C126" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="D126" s="66" t="s">
+      <c r="D126" s="67" t="s">
         <v>494</v>
       </c>
-      <c r="E126" s="67"/>
-      <c r="F126" s="67"/>
-      <c r="G126" s="68"/>
+      <c r="E126" s="68"/>
+      <c r="F126" s="68"/>
+      <c r="G126" s="69"/>
     </row>
     <row r="127" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
@@ -7045,12 +7323,12 @@
       <c r="C127" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="D127" s="66" t="s">
+      <c r="D127" s="67" t="s">
         <v>495</v>
       </c>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="68"/>
+      <c r="E127" s="68"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="69"/>
     </row>
     <row r="128" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
@@ -7062,12 +7340,12 @@
       <c r="C128" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D128" s="66" t="s">
+      <c r="D128" s="67" t="s">
         <v>496</v>
       </c>
-      <c r="E128" s="67"/>
-      <c r="F128" s="67"/>
-      <c r="G128" s="68"/>
+      <c r="E128" s="68"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="69"/>
     </row>
     <row r="129" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7100,27 +7378,27 @@
       </c>
     </row>
     <row r="135" spans="1:7" s="40" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="66" t="s">
+      <c r="A135" s="67" t="s">
         <v>498</v>
       </c>
-      <c r="B135" s="67"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="67"/>
-      <c r="F135" s="67"/>
-      <c r="G135" s="68"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="68"/>
+      <c r="F135" s="68"/>
+      <c r="G135" s="69"/>
     </row>
     <row r="136" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="63" t="s">
+      <c r="A137" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="63"/>
-      <c r="G137" s="63"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="64"/>
+      <c r="D137" s="64"/>
+      <c r="E137" s="64"/>
+      <c r="F137" s="64"/>
+      <c r="G137" s="64"/>
     </row>
     <row r="138" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
@@ -7210,15 +7488,15 @@
     </row>
     <row r="142" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="63" t="s">
+      <c r="A143" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="63"/>
-      <c r="C143" s="63"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="63"/>
-      <c r="F143" s="63"/>
-      <c r="G143" s="63"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="64"/>
+      <c r="D143" s="64"/>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="64"/>
     </row>
     <row r="144" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
@@ -7230,12 +7508,12 @@
       <c r="C144" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="64" t="s">
+      <c r="D144" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="64"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
     </row>
     <row r="145" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
@@ -7247,12 +7525,12 @@
       <c r="C145" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="66" t="s">
+      <c r="D145" s="67" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
-      <c r="G145" s="68"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="69"/>
     </row>
     <row r="146" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
@@ -7264,12 +7542,12 @@
       <c r="C146" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="65" t="s">
+      <c r="D146" s="66" t="s">
         <v>500</v>
       </c>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="62"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="63"/>
     </row>
     <row r="147" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7302,26 +7580,26 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="66" t="s">
+      <c r="A153" s="67" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="67"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="67"/>
-      <c r="F153" s="67"/>
-      <c r="G153" s="68"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="68"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68"/>
+      <c r="G153" s="69"/>
     </row>
     <row r="155" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="63" t="s">
+      <c r="A155" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B155" s="63"/>
-      <c r="C155" s="63"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
+      <c r="B155" s="64"/>
+      <c r="C155" s="64"/>
+      <c r="D155" s="64"/>
+      <c r="E155" s="64"/>
+      <c r="F155" s="64"/>
+      <c r="G155" s="64"/>
     </row>
     <row r="156" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
@@ -7389,15 +7667,15 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="63" t="s">
+      <c r="A160" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="B160" s="63"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="63"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="63"/>
-      <c r="G160" s="63"/>
+      <c r="B160" s="64"/>
+      <c r="C160" s="64"/>
+      <c r="D160" s="64"/>
+      <c r="E160" s="64"/>
+      <c r="F160" s="64"/>
+      <c r="G160" s="64"/>
     </row>
     <row r="161" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
@@ -7409,12 +7687,12 @@
       <c r="C161" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="64" t="s">
+      <c r="D161" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="65"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
@@ -7426,12 +7704,12 @@
       <c r="C162" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D162" s="66" t="s">
+      <c r="D162" s="67" t="s">
         <v>263</v>
       </c>
-      <c r="E162" s="67"/>
-      <c r="F162" s="67"/>
-      <c r="G162" s="68"/>
+      <c r="E162" s="68"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -7520,10 +7798,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D32:D34 D61:D62 D157:D158 D139:D141" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D16 D32:D34 D61:D62 D157:D158 D139:D141">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E32:E34 E61:E62 E157:E158 E23:E24 E139:E141" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E16 E32:E34 E61:E62 E157:E158 E23:E24 E139:E141">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7533,7 +7811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -7556,15 +7834,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -7572,15 +7850,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -7610,27 +7888,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -7728,15 +8006,15 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
@@ -7748,12 +8026,12 @@
       <c r="C18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
@@ -7765,12 +8043,12 @@
       <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -7782,12 +8060,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -7799,12 +8077,12 @@
       <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
@@ -7816,12 +8094,12 @@
       <c r="C22" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="67" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
@@ -7864,12 +8142,12 @@
       <c r="C26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="77"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
@@ -7881,10 +8159,10 @@
       <c r="C27" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="73"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
@@ -7896,10 +8174,10 @@
       <c r="C28" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
@@ -7911,10 +8189,10 @@
       <c r="C29" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
@@ -7926,10 +8204,10 @@
       <c r="C30" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="74"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
@@ -7986,15 +8264,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="69"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
@@ -8006,15 +8284,15 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="63" t="s">
+      <c r="A39" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="64"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
@@ -8091,15 +8369,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="63" t="s">
+      <c r="A44" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
@@ -8111,12 +8389,12 @@
       <c r="C45" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
@@ -8128,10 +8406,10 @@
       <c r="C46" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="74"/>
     </row>
     <row r="47" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
@@ -8143,10 +8421,10 @@
       <c r="C47" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="74"/>
     </row>
     <row r="48" spans="1:7" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
@@ -8158,12 +8436,12 @@
       <c r="C48" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="67" t="s">
         <v>370</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="69"/>
     </row>
     <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -8175,10 +8453,10 @@
       <c r="C49" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="73"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="74"/>
     </row>
     <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
@@ -8190,10 +8468,10 @@
       <c r="C50" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="73"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="74"/>
     </row>
     <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
@@ -8205,10 +8483,10 @@
       <c r="C51" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="73"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="74"/>
     </row>
     <row r="52" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
@@ -8220,10 +8498,10 @@
       <c r="C52" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="73"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="74"/>
     </row>
     <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
@@ -8235,12 +8513,12 @@
       <c r="C53" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="65" t="s">
+      <c r="D53" s="66" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -8252,12 +8530,12 @@
       <c r="C54" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="65" t="s">
+      <c r="D54" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="62"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -8269,10 +8547,10 @@
       <c r="C55" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="71"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="73"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="74"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -8284,10 +8562,10 @@
       <c r="C56" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="73"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="74"/>
     </row>
     <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -8299,10 +8577,10 @@
       <c r="C57" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="74"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
@@ -8314,10 +8592,10 @@
       <c r="C58" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D58" s="71"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="73"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="74"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
@@ -8329,10 +8607,10 @@
       <c r="C59" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="71"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="74"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
@@ -8344,12 +8622,12 @@
       <c r="C60" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
@@ -8361,12 +8639,12 @@
       <c r="C61" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
@@ -8378,10 +8656,10 @@
       <c r="C62" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="74"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
@@ -8420,12 +8698,12 @@
       <c r="C66" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="64" t="s">
+      <c r="D66" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -8437,12 +8715,12 @@
       <c r="C67" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="66" t="s">
+      <c r="D67" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="69"/>
-      <c r="F67" s="69"/>
-      <c r="G67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
+      <c r="G67" s="71"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -8454,12 +8732,12 @@
       <c r="C68" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="66" t="s">
+      <c r="D68" s="67" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="69"/>
-      <c r="F68" s="69"/>
-      <c r="G68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="G68" s="71"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -8471,12 +8749,12 @@
       <c r="C69" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="66" t="s">
+      <c r="D69" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="71"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
@@ -8520,12 +8798,12 @@
       <c r="C73" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="64" t="s">
+      <c r="D73" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -8537,12 +8815,12 @@
       <c r="C74" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="66" t="s">
         <v>355</v>
       </c>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -8554,10 +8832,10 @@
       <c r="C75" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="63"/>
+      <c r="G75" s="63"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -8569,12 +8847,12 @@
       <c r="C76" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D76" s="65" t="s">
+      <c r="D76" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
@@ -8586,12 +8864,12 @@
       <c r="C77" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="65" t="s">
+      <c r="D77" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
@@ -8636,12 +8914,12 @@
       <c r="C81" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="64" t="s">
+      <c r="D81" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
     </row>
     <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="29" t="s">
@@ -8653,10 +8931,10 @@
       <c r="C82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
@@ -8668,10 +8946,10 @@
       <c r="C83" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="29" t="s">
@@ -8683,10 +8961,10 @@
       <c r="C84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
     </row>
     <row r="85" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29" t="s">
@@ -8698,10 +8976,10 @@
       <c r="C85" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="62"/>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
     </row>
     <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="29" t="s">
@@ -8713,10 +8991,10 @@
       <c r="C86" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="63"/>
     </row>
     <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="29" t="s">
@@ -8728,10 +9006,10 @@
       <c r="C87" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="62"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63"/>
     </row>
     <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="29" t="s">
@@ -8743,10 +9021,10 @@
       <c r="C88" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
     </row>
     <row r="90" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
@@ -8771,12 +9049,12 @@
       <c r="C92" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="64" t="s">
+      <c r="D92" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
     </row>
     <row r="93" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
@@ -8786,10 +9064,10 @@
         <v>210</v>
       </c>
       <c r="C93" s="29"/>
-      <c r="D93" s="71"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="73"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="74"/>
     </row>
     <row r="94" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
@@ -8799,10 +9077,10 @@
         <v>339</v>
       </c>
       <c r="C94" s="29"/>
-      <c r="D94" s="71"/>
-      <c r="E94" s="72"/>
-      <c r="F94" s="72"/>
-      <c r="G94" s="73"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="74"/>
     </row>
     <row r="95" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
@@ -8812,10 +9090,10 @@
         <v>341</v>
       </c>
       <c r="C95" s="29"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="73"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="73"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="74"/>
     </row>
     <row r="96" spans="1:7" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
@@ -8825,10 +9103,10 @@
         <v>343</v>
       </c>
       <c r="C96" s="29"/>
-      <c r="D96" s="71"/>
-      <c r="E96" s="72"/>
-      <c r="F96" s="72"/>
-      <c r="G96" s="73"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="73"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="74"/>
     </row>
     <row r="97" spans="1:7" s="31" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
@@ -8838,10 +9116,10 @@
         <v>345</v>
       </c>
       <c r="C97" s="29"/>
-      <c r="D97" s="71"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="73"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="73"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="74"/>
     </row>
     <row r="98" spans="1:7" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="28" t="s">
@@ -8851,10 +9129,10 @@
         <v>347</v>
       </c>
       <c r="C98" s="29"/>
-      <c r="D98" s="71"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="73"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="74"/>
     </row>
     <row r="99" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28" t="s">
@@ -8864,10 +9142,10 @@
         <v>348</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="D99" s="71"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="72"/>
-      <c r="G99" s="73"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="74"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="32"/>
@@ -8906,32 +9184,32 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="66" t="s">
+      <c r="A106" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="67"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="67"/>
-      <c r="F106" s="67"/>
-      <c r="G106" s="68"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="68"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="68"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="69"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="78"/>
     </row>
     <row r="108" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="63" t="s">
+      <c r="A108" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="64"/>
+      <c r="G108" s="64"/>
     </row>
     <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
@@ -8999,15 +9277,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="63" t="s">
+      <c r="A113" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="63"/>
-      <c r="C113" s="63"/>
-      <c r="D113" s="63"/>
-      <c r="E113" s="63"/>
-      <c r="F113" s="63"/>
-      <c r="G113" s="63"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="64"/>
+      <c r="D113" s="64"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="64"/>
+      <c r="G113" s="64"/>
     </row>
     <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
@@ -9019,12 +9297,12 @@
       <c r="C114" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="74" t="s">
+      <c r="D114" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E114" s="75"/>
-      <c r="F114" s="75"/>
-      <c r="G114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="77"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="29" t="s">
@@ -9036,12 +9314,12 @@
       <c r="C115" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="65" t="s">
+      <c r="D115" s="66" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="62"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="62"/>
+      <c r="E115" s="63"/>
+      <c r="F115" s="63"/>
+      <c r="G115" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -9115,10 +9393,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E42 E13:E15 E89 E100 E110:E111" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E41:E42 E13:E15 E89 E100 E110:E111">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D42 D13:D15 D89 D100 D110:D111" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D41:D42 D13:D15 D89 D100 D110:D111">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9128,7 +9406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9151,15 +9429,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -9167,15 +9445,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -9205,27 +9483,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
@@ -9302,15 +9580,15 @@
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -9322,12 +9600,12 @@
       <c r="C17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
@@ -9339,10 +9617,10 @@
       <c r="C18" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
@@ -9354,12 +9632,12 @@
       <c r="C19" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
@@ -9371,10 +9649,10 @@
       <c r="C20" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
@@ -9386,10 +9664,10 @@
       <c r="C21" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
@@ -9401,10 +9679,10 @@
       <c r="C22" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
@@ -9416,10 +9694,10 @@
       <c r="C23" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
@@ -9431,10 +9709,10 @@
       <c r="C24" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
@@ -9473,27 +9751,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="67" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
     </row>
     <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -9549,15 +9827,15 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
@@ -9569,12 +9847,12 @@
       <c r="C37" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
@@ -9586,10 +9864,10 @@
       <c r="C38" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
@@ -9601,10 +9879,10 @@
       <c r="C39" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
@@ -9616,12 +9894,12 @@
       <c r="C40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="69"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
@@ -9651,12 +9929,12 @@
       <c r="C44" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
@@ -9668,10 +9946,10 @@
       <c r="C45" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D45" s="66"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="68"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
@@ -9683,10 +9961,10 @@
       <c r="C46" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="66"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="68"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
@@ -9698,12 +9976,12 @@
       <c r="C47" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="71"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
@@ -9715,10 +9993,10 @@
       <c r="C48" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="66"/>
-      <c r="E48" s="69"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="70"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="71"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
@@ -9730,10 +10008,10 @@
       <c r="C49" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="70"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="71"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
@@ -9745,10 +10023,10 @@
       <c r="C50" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="70"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="71"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
@@ -9760,10 +10038,10 @@
       <c r="C51" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="66"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="71"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
@@ -9775,10 +10053,10 @@
       <c r="C52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="70"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="71"/>
     </row>
     <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -9808,26 +10086,26 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="66" t="s">
+      <c r="A59" s="67" t="s">
         <v>446</v>
       </c>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="69"/>
     </row>
     <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="63" t="s">
+      <c r="A61" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
@@ -9958,15 +10236,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="63" t="s">
+      <c r="A69" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
@@ -9978,12 +10256,12 @@
       <c r="C70" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="74" t="s">
+      <c r="D70" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="75"/>
-      <c r="F70" s="75"/>
-      <c r="G70" s="76"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="77"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
@@ -9995,12 +10273,12 @@
       <c r="C71" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D71" s="66" t="s">
+      <c r="D71" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
+      <c r="G71" s="69"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
@@ -10012,12 +10290,12 @@
       <c r="C72" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="67" t="s">
         <v>429</v>
       </c>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="69"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
@@ -10042,12 +10320,12 @@
       <c r="C76" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="65" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
@@ -10059,10 +10337,10 @@
       <c r="C77" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
@@ -10074,10 +10352,10 @@
       <c r="C78" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
@@ -10089,10 +10367,10 @@
       <c r="C79" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="62"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
@@ -10104,10 +10382,10 @@
       <c r="C80" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
@@ -10119,12 +10397,12 @@
       <c r="C81" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D81" s="66" t="s">
+      <c r="D81" s="67" t="s">
         <v>397</v>
       </c>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="70"/>
+      <c r="E81" s="70"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="71"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
@@ -10136,10 +10414,10 @@
       <c r="C82" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="63"/>
+      <c r="G82" s="63"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
@@ -10151,10 +10429,10 @@
       <c r="C83" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62"/>
-      <c r="G83" s="62"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
@@ -10166,10 +10444,10 @@
       <c r="C84" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -10220,10 +10498,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D34 D63:D67" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D34 D63:D67">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14 E34 E63:E67" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E13:E14 E34 E63:E67">
       <formula1>"Header,Param,Body"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10233,7 +10511,313 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="41" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="41" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B2" s="81" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C3" s="82" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C4" s="82" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C6" s="82" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="81" t="s">
+        <v>518</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C8" s="82" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C9" s="82"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="s">
+        <v>521</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>522</v>
+      </c>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="79"/>
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" s="80" t="s">
+        <v>523</v>
+      </c>
+      <c r="B44" s="80" t="s">
+        <v>519</v>
+      </c>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="79"/>
+      <c r="U44" s="79"/>
+      <c r="V44" s="79"/>
+      <c r="W44" s="79"/>
+      <c r="X44" s="79"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="79"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B45" s="81" t="s">
+        <v>509</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C46" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="D46" s="82" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D47" s="82" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C48" s="82" t="s">
+        <v>513</v>
+      </c>
+      <c r="D48" s="82" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C49" s="82" t="s">
+        <v>529</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="82" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="C51" s="82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" s="82" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C53" s="82" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54" s="82" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="81" t="s">
+        <v>518</v>
+      </c>
+      <c r="C55" s="82" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C56" s="82" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="82" t="s">
+        <v>536</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="7" width="3.125" style="41" customWidth="1"/>
+    <col min="8" max="26" width="11.125" style="41" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10247,37 +10831,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">

--- a/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
+++ b/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -4160,6 +4160,21 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4205,24 +4220,6 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4232,8 +4229,8 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4249,6 +4246,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5672,8 +5672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -5688,12 +5688,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -5702,10 +5702,10 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="59" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5716,26 +5716,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="55"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5744,10 +5744,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -5756,10 +5756,10 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="63"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
@@ -5768,145 +5768,141 @@
       <c r="C9" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="47" t="s">
         <v>691</v>
       </c>
-      <c r="E9" s="63"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="63"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="63"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="63"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="48"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B6:E6"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -5919,12 +5915,16 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C4">
@@ -6337,7 +6337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z240"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
+    <sheetView topLeftCell="A205" workbookViewId="0">
       <selection activeCell="C241" sqref="C241"/>
     </sheetView>
   </sheetViews>
@@ -6942,8 +6942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z179"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7423,37 +7423,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -28267,15 +28267,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -28283,15 +28283,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -28321,28 +28321,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
@@ -28410,15 +28410,15 @@
       <c r="G15" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
@@ -28509,26 +28509,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="67" t="s">
         <v>461</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -28575,15 +28575,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -28595,12 +28595,12 @@
       <c r="C33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="70" t="s">
+      <c r="D33" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
@@ -28612,12 +28612,12 @@
       <c r="C34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -28629,12 +28629,12 @@
       <c r="C35" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
@@ -28646,12 +28646,12 @@
       <c r="C36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
@@ -28663,12 +28663,12 @@
       <c r="C37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
@@ -28680,12 +28680,12 @@
       <c r="C38" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D38" s="68" t="s">
+      <c r="D38" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
@@ -28697,12 +28697,12 @@
       <c r="C39" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
@@ -28732,12 +28732,12 @@
       <c r="C43" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
@@ -28749,10 +28749,10 @@
       <c r="C44" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
@@ -28764,10 +28764,10 @@
       <c r="C45" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="68"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
@@ -28779,10 +28779,10 @@
       <c r="C46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
@@ -28794,10 +28794,10 @@
       <c r="C47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
@@ -28809,10 +28809,10 @@
       <c r="C48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
@@ -28824,10 +28824,10 @@
       <c r="C49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
@@ -28839,10 +28839,10 @@
       <c r="C50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
@@ -28872,12 +28872,12 @@
       <c r="C54" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
@@ -28889,10 +28889,10 @@
       <c r="C55" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="67"/>
+      <c r="G55" s="67"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
@@ -28904,10 +28904,10 @@
       <c r="C56" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
+      <c r="G56" s="67"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -28919,24 +28919,13 @@
       <c r="C57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="A17:G17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A28:G28"/>
@@ -28953,6 +28942,17 @@
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D44:G44"/>
     <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="A17:G17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
@@ -28992,15 +28992,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -29008,15 +29008,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -29046,27 +29046,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -29176,15 +29176,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -29196,12 +29196,12 @@
       <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -29213,12 +29213,12 @@
       <c r="C20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -29230,12 +29230,12 @@
       <c r="C21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -29247,12 +29247,12 @@
       <c r="C22" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="76" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
     </row>
     <row r="24" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
@@ -29269,12 +29269,12 @@
       <c r="C25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="70" t="s">
+      <c r="D25" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -29286,10 +29286,10 @@
       <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
@@ -29301,10 +29301,10 @@
       <c r="C27" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -29340,26 +29340,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="74"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="73"/>
     </row>
     <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
     </row>
     <row r="36" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
@@ -29427,15 +29427,15 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -29447,12 +29447,12 @@
       <c r="C41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
     </row>
     <row r="42" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
@@ -29464,10 +29464,10 @@
       <c r="C42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
@@ -29479,10 +29479,10 @@
       <c r="C43" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -29506,12 +29506,12 @@
       <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
@@ -29523,10 +29523,10 @@
       <c r="C47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
@@ -29538,10 +29538,10 @@
       <c r="C48" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -29553,10 +29553,10 @@
       <c r="C49" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
@@ -29586,12 +29586,12 @@
       <c r="C53" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="70" t="s">
+      <c r="D53" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="70"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -29603,12 +29603,12 @@
       <c r="C54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="76"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="75"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -29620,12 +29620,12 @@
       <c r="C55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="72" t="s">
+      <c r="D55" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="76"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="75"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -29637,12 +29637,12 @@
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="72" t="s">
+      <c r="D56" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="76"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="75"/>
     </row>
     <row r="57" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29673,26 +29673,26 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="74"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="73"/>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -29760,15 +29760,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
@@ -29780,12 +29780,12 @@
       <c r="C70" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="70" t="s">
+      <c r="D70" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="70"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -29797,10 +29797,10 @@
       <c r="C71" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -29812,10 +29812,10 @@
       <c r="C72" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
@@ -29827,10 +29827,10 @@
       <c r="C73" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
@@ -29842,13 +29842,31 @@
       <c r="C74" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="D74:G74"/>
     <mergeCell ref="D46:G46"/>
     <mergeCell ref="D47:G47"/>
@@ -29865,24 +29883,6 @@
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D70:G70"/>
     <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
@@ -29922,15 +29922,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -29938,15 +29938,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -29976,27 +29976,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -30106,15 +30106,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -30126,12 +30126,12 @@
       <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="70" t="s">
+      <c r="D19" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -30143,12 +30143,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -30160,12 +30160,12 @@
       <c r="C21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="76" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
     </row>
     <row r="23" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -30196,26 +30196,26 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="74"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
@@ -30304,15 +30304,15 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
@@ -30324,12 +30324,12 @@
       <c r="C37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="70" t="s">
+      <c r="D37" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
@@ -30341,12 +30341,12 @@
       <c r="C38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="72" t="s">
+      <c r="D38" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
@@ -30358,12 +30358,12 @@
       <c r="C39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
@@ -30375,12 +30375,12 @@
       <c r="C40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
@@ -30392,12 +30392,12 @@
       <c r="C41" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="74"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="73"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
@@ -30441,12 +30441,12 @@
       <c r="C46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="70" t="s">
+      <c r="D46" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="70"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
@@ -30458,12 +30458,12 @@
       <c r="C47" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="73"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
@@ -30475,12 +30475,12 @@
       <c r="C48" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -30492,12 +30492,12 @@
       <c r="C49" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="71" t="s">
+      <c r="D49" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
@@ -30509,12 +30509,12 @@
       <c r="C50" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="71" t="s">
+      <c r="D50" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="67"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
@@ -30526,12 +30526,12 @@
       <c r="C51" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="71" t="s">
+      <c r="D51" s="76" t="s">
         <v>467</v>
       </c>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="67"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30563,26 +30563,26 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="74"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="73"/>
     </row>
     <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -30650,15 +30650,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -30670,12 +30670,12 @@
       <c r="C65" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="70" t="s">
+      <c r="D65" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="70"/>
+      <c r="E65" s="69"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="69"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -30687,12 +30687,12 @@
       <c r="C66" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="72" t="s">
+      <c r="D66" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="74"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="73"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -30704,12 +30704,12 @@
       <c r="C67" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D67" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="68"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -30721,12 +30721,12 @@
       <c r="C68" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
+      <c r="G68" s="67"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -30738,12 +30738,12 @@
       <c r="C69" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
@@ -30755,12 +30755,12 @@
       <c r="C70" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -30772,12 +30772,12 @@
       <c r="C71" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="68"/>
-      <c r="G71" s="68"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -30789,12 +30789,12 @@
       <c r="C72" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="76" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
+      <c r="G72" s="67"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
@@ -30806,12 +30806,12 @@
       <c r="C73" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D73" s="71" t="s">
+      <c r="D73" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -30823,12 +30823,12 @@
       <c r="C74" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="76" t="s">
         <v>255</v>
       </c>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -30840,12 +30840,12 @@
       <c r="C75" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="71" t="s">
+      <c r="D75" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -30857,12 +30857,12 @@
       <c r="C76" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
@@ -30874,12 +30874,12 @@
       <c r="C77" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="76" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
@@ -30891,12 +30891,12 @@
       <c r="C78" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="76" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
     </row>
     <row r="79" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
@@ -30908,21 +30908,21 @@
       <c r="C79" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="76" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
     </row>
     <row r="80" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
@@ -30947,12 +30947,12 @@
       <c r="C84" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="70" t="s">
+      <c r="D84" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
     </row>
     <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
@@ -30964,10 +30964,10 @@
       <c r="C85" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
     </row>
     <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
@@ -30979,10 +30979,10 @@
       <c r="C86" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
@@ -30994,10 +30994,10 @@
       <c r="C87" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
@@ -31009,10 +31009,10 @@
       <c r="C88" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
     </row>
     <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
@@ -31024,10 +31024,10 @@
       <c r="C89" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="68"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="67"/>
+      <c r="G89" s="67"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
@@ -31039,10 +31039,10 @@
       <c r="C90" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
+      <c r="G90" s="67"/>
     </row>
     <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
@@ -31054,10 +31054,10 @@
       <c r="C91" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="68"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="67"/>
+      <c r="G91" s="67"/>
     </row>
     <row r="92" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31083,12 +31083,12 @@
       <c r="C95" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="70" t="s">
+      <c r="D95" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="70"/>
+      <c r="E95" s="69"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
     </row>
     <row r="96" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
@@ -31210,12 +31210,12 @@
       <c r="C106" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="70" t="s">
+      <c r="D106" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
+      <c r="E106" s="69"/>
+      <c r="F106" s="69"/>
+      <c r="G106" s="69"/>
     </row>
     <row r="107" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
@@ -31227,10 +31227,10 @@
       <c r="C107" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D107" s="72"/>
-      <c r="E107" s="75"/>
-      <c r="F107" s="75"/>
-      <c r="G107" s="76"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="75"/>
     </row>
     <row r="108" spans="1:7" s="40" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
@@ -31242,10 +31242,10 @@
       <c r="C108" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D108" s="72"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="76"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="74"/>
+      <c r="G108" s="75"/>
     </row>
     <row r="109" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31271,12 +31271,12 @@
       <c r="C112" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="70" t="s">
+      <c r="D112" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="70"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
     </row>
     <row r="113" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
@@ -31288,12 +31288,12 @@
       <c r="C113" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D113" s="72" t="s">
+      <c r="D113" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="E113" s="75"/>
-      <c r="F113" s="75"/>
-      <c r="G113" s="76"/>
+      <c r="E113" s="74"/>
+      <c r="F113" s="74"/>
+      <c r="G113" s="75"/>
     </row>
     <row r="114" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
@@ -31305,12 +31305,12 @@
       <c r="C114" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="72" t="s">
+      <c r="D114" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="E114" s="75"/>
-      <c r="F114" s="75"/>
-      <c r="G114" s="76"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="74"/>
+      <c r="G114" s="75"/>
     </row>
     <row r="115" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
@@ -31322,12 +31322,12 @@
       <c r="C115" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="72" t="s">
+      <c r="D115" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="E115" s="75"/>
-      <c r="F115" s="75"/>
-      <c r="G115" s="76"/>
+      <c r="E115" s="74"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="75"/>
     </row>
     <row r="116" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31353,12 +31353,12 @@
       <c r="C119" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="70" t="s">
+      <c r="D119" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="70"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
     </row>
     <row r="120" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
@@ -31370,12 +31370,12 @@
       <c r="C120" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D120" s="72" t="s">
+      <c r="D120" s="71" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="75"/>
-      <c r="F120" s="75"/>
-      <c r="G120" s="76"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="75"/>
     </row>
     <row r="121" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
@@ -31387,12 +31387,12 @@
       <c r="C121" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D121" s="72" t="s">
+      <c r="D121" s="71" t="s">
         <v>483</v>
       </c>
-      <c r="E121" s="75"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="76"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="74"/>
+      <c r="G121" s="75"/>
     </row>
     <row r="122" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31418,12 +31418,12 @@
       <c r="C125" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="70" t="s">
+      <c r="D125" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E125" s="70"/>
-      <c r="F125" s="70"/>
-      <c r="G125" s="70"/>
+      <c r="E125" s="69"/>
+      <c r="F125" s="69"/>
+      <c r="G125" s="69"/>
     </row>
     <row r="126" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
@@ -31435,12 +31435,12 @@
       <c r="C126" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="D126" s="72" t="s">
+      <c r="D126" s="71" t="s">
         <v>494</v>
       </c>
-      <c r="E126" s="73"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="74"/>
+      <c r="E126" s="72"/>
+      <c r="F126" s="72"/>
+      <c r="G126" s="73"/>
     </row>
     <row r="127" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
@@ -31452,12 +31452,12 @@
       <c r="C127" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="D127" s="72" t="s">
+      <c r="D127" s="71" t="s">
         <v>495</v>
       </c>
-      <c r="E127" s="73"/>
-      <c r="F127" s="73"/>
-      <c r="G127" s="74"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="72"/>
+      <c r="G127" s="73"/>
     </row>
     <row r="128" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
@@ -31469,12 +31469,12 @@
       <c r="C128" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D128" s="72" t="s">
+      <c r="D128" s="71" t="s">
         <v>496</v>
       </c>
-      <c r="E128" s="73"/>
-      <c r="F128" s="73"/>
-      <c r="G128" s="74"/>
+      <c r="E128" s="72"/>
+      <c r="F128" s="72"/>
+      <c r="G128" s="73"/>
     </row>
     <row r="129" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31507,27 +31507,27 @@
       </c>
     </row>
     <row r="135" spans="1:7" s="40" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="72" t="s">
+      <c r="A135" s="71" t="s">
         <v>498</v>
       </c>
-      <c r="B135" s="73"/>
-      <c r="C135" s="73"/>
-      <c r="D135" s="73"/>
-      <c r="E135" s="73"/>
-      <c r="F135" s="73"/>
-      <c r="G135" s="74"/>
+      <c r="B135" s="72"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="72"/>
+      <c r="F135" s="72"/>
+      <c r="G135" s="73"/>
     </row>
     <row r="136" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="69" t="s">
+      <c r="A137" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="69"/>
-      <c r="C137" s="69"/>
-      <c r="D137" s="69"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="69"/>
-      <c r="G137" s="69"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="68"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="68"/>
+      <c r="F137" s="68"/>
+      <c r="G137" s="68"/>
     </row>
     <row r="138" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
@@ -31617,15 +31617,15 @@
     </row>
     <row r="142" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="69" t="s">
+      <c r="A143" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="69"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="69"/>
-      <c r="E143" s="69"/>
-      <c r="F143" s="69"/>
-      <c r="G143" s="69"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="68"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="68"/>
+      <c r="F143" s="68"/>
+      <c r="G143" s="68"/>
     </row>
     <row r="144" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
@@ -31637,12 +31637,12 @@
       <c r="C144" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="70" t="s">
+      <c r="D144" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="70"/>
-      <c r="F144" s="70"/>
-      <c r="G144" s="70"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
     </row>
     <row r="145" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
@@ -31654,12 +31654,12 @@
       <c r="C145" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="72" t="s">
+      <c r="D145" s="71" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="73"/>
-      <c r="F145" s="73"/>
-      <c r="G145" s="74"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
+      <c r="G145" s="73"/>
     </row>
     <row r="146" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
@@ -31671,12 +31671,12 @@
       <c r="C146" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="71" t="s">
+      <c r="D146" s="76" t="s">
         <v>500</v>
       </c>
-      <c r="E146" s="68"/>
-      <c r="F146" s="68"/>
-      <c r="G146" s="68"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="67"/>
+      <c r="G146" s="67"/>
     </row>
     <row r="147" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31709,26 +31709,26 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="72" t="s">
+      <c r="A153" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="73"/>
-      <c r="C153" s="73"/>
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="73"/>
-      <c r="G153" s="74"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="73"/>
     </row>
     <row r="155" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="69" t="s">
+      <c r="A155" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B155" s="69"/>
-      <c r="C155" s="69"/>
-      <c r="D155" s="69"/>
-      <c r="E155" s="69"/>
-      <c r="F155" s="69"/>
-      <c r="G155" s="69"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="68"/>
     </row>
     <row r="156" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
@@ -31796,15 +31796,15 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="69" t="s">
+      <c r="A160" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="B160" s="69"/>
-      <c r="C160" s="69"/>
-      <c r="D160" s="69"/>
-      <c r="E160" s="69"/>
-      <c r="F160" s="69"/>
-      <c r="G160" s="69"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="68"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="68"/>
     </row>
     <row r="161" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
@@ -31816,12 +31816,12 @@
       <c r="C161" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="70" t="s">
+      <c r="D161" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="70"/>
-      <c r="F161" s="70"/>
-      <c r="G161" s="70"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="69"/>
+      <c r="G161" s="69"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
@@ -31833,26 +31833,70 @@
       <c r="C162" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D162" s="72" t="s">
+      <c r="D162" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="E162" s="73"/>
-      <c r="F162" s="73"/>
-      <c r="G162" s="74"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
+      <c r="G162" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A137:G137"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D162:G162"/>
+    <mergeCell ref="A160:G160"/>
+    <mergeCell ref="D161:G161"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="D101:G101"/>
+    <mergeCell ref="D102:G102"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="D90:G90"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="A153:G153"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="D108:G108"/>
+    <mergeCell ref="D112:G112"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D119:G119"/>
+    <mergeCell ref="D120:G120"/>
+    <mergeCell ref="D121:G121"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
     <mergeCell ref="D79:G79"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="D21:G21"/>
@@ -31869,61 +31913,17 @@
     <mergeCell ref="D77:G77"/>
     <mergeCell ref="D72:G72"/>
     <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="A153:G153"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D162:G162"/>
-    <mergeCell ref="A160:G160"/>
-    <mergeCell ref="D161:G161"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D145:G145"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A137:G137"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="D144:G144"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
@@ -31963,15 +31963,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -31979,15 +31979,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -32017,27 +32017,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -32135,15 +32135,15 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
@@ -32172,12 +32172,12 @@
       <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -32189,12 +32189,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="71" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -32206,12 +32206,12 @@
       <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="71" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
@@ -32223,12 +32223,12 @@
       <c r="C22" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
@@ -32393,15 +32393,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="74"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="73"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
@@ -32413,15 +32413,15 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
@@ -32498,15 +32498,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
@@ -32565,12 +32565,12 @@
       <c r="C48" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="74"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="73"/>
     </row>
     <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -32642,12 +32642,12 @@
       <c r="C53" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -32659,12 +32659,12 @@
       <c r="C54" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="76" t="s">
         <v>309</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="67"/>
     </row>
     <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -32751,12 +32751,12 @@
       <c r="C60" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
@@ -32768,12 +32768,12 @@
       <c r="C61" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="76" t="s">
         <v>324</v>
       </c>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
+      <c r="G61" s="67"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
@@ -32827,12 +32827,12 @@
       <c r="C66" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="69"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -32844,12 +32844,12 @@
       <c r="C67" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="72" t="s">
+      <c r="D67" s="71" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="76"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="75"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -32861,12 +32861,12 @@
       <c r="C68" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="71" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="75"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="76"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="75"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -32878,12 +32878,12 @@
       <c r="C69" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="72" t="s">
+      <c r="D69" s="71" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="76"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
@@ -32927,12 +32927,12 @@
       <c r="C73" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="70" t="s">
+      <c r="D73" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -32944,12 +32944,12 @@
       <c r="C74" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="71" t="s">
+      <c r="D74" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="67"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -32961,10 +32961,10 @@
       <c r="C75" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -32976,12 +32976,12 @@
       <c r="C76" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
@@ -32993,12 +32993,12 @@
       <c r="C77" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="76" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
@@ -33043,12 +33043,12 @@
       <c r="C81" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="70" t="s">
+      <c r="D81" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="70"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
     </row>
     <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="29" t="s">
@@ -33060,10 +33060,10 @@
       <c r="C82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
@@ -33075,10 +33075,10 @@
       <c r="C83" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="29" t="s">
@@ -33090,10 +33090,10 @@
       <c r="C84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
     </row>
     <row r="85" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29" t="s">
@@ -33105,10 +33105,10 @@
       <c r="C85" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
     </row>
     <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="29" t="s">
@@ -33120,10 +33120,10 @@
       <c r="C86" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="67"/>
+      <c r="G86" s="67"/>
     </row>
     <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="29" t="s">
@@ -33135,10 +33135,10 @@
       <c r="C87" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="67"/>
     </row>
     <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="29" t="s">
@@ -33150,10 +33150,10 @@
       <c r="C88" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="67"/>
     </row>
     <row r="90" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
@@ -33178,12 +33178,12 @@
       <c r="C92" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="70" t="s">
+      <c r="D92" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
+      <c r="E92" s="69"/>
+      <c r="F92" s="69"/>
+      <c r="G92" s="69"/>
     </row>
     <row r="93" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
@@ -33313,15 +33313,15 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="72" t="s">
+      <c r="A106" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="73"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="74"/>
+      <c r="B106" s="72"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="72"/>
+      <c r="E106" s="72"/>
+      <c r="F106" s="72"/>
+      <c r="G106" s="73"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D107" s="83"/>
@@ -33330,15 +33330,15 @@
       <c r="G107" s="83"/>
     </row>
     <row r="108" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="69" t="s">
+      <c r="A108" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="69"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="68"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="68"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="68"/>
     </row>
     <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
@@ -33406,15 +33406,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="69" t="s">
+      <c r="A113" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="69"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="68"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="68"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="68"/>
     </row>
     <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
@@ -33443,47 +33443,34 @@
       <c r="C115" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="71" t="s">
+      <c r="D115" s="76" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="68"/>
-      <c r="F115" s="68"/>
-      <c r="G115" s="68"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="67"/>
+      <c r="G115" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="A106:G106"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="D75:G75"/>
+    <mergeCell ref="D69:G69"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
     <mergeCell ref="D55:G55"/>
     <mergeCell ref="D56:G56"/>
     <mergeCell ref="D57:G57"/>
@@ -33500,25 +33487,38 @@
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="A37:G37"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D85:G85"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="D88:G88"/>
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="D93:G93"/>
+    <mergeCell ref="D94:G94"/>
+    <mergeCell ref="D95:G95"/>
+    <mergeCell ref="D96:G96"/>
+    <mergeCell ref="D97:G97"/>
+    <mergeCell ref="D98:G98"/>
+    <mergeCell ref="D114:G114"/>
+    <mergeCell ref="D115:G115"/>
+    <mergeCell ref="D99:G99"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="D107:G107"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
@@ -33558,15 +33558,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -33574,15 +33574,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -33612,27 +33612,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="74"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
@@ -33709,15 +33709,15 @@
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -33746,10 +33746,10 @@
       <c r="C18" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="74"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
@@ -33761,12 +33761,12 @@
       <c r="C19" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
@@ -33778,10 +33778,10 @@
       <c r="C20" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
@@ -33793,10 +33793,10 @@
       <c r="C21" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="74"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
@@ -33808,10 +33808,10 @@
       <c r="C22" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="74"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
@@ -33823,10 +33823,10 @@
       <c r="C23" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="74"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
@@ -33838,10 +33838,10 @@
       <c r="C24" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="74"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
@@ -33880,27 +33880,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="74"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
     </row>
     <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -33956,15 +33956,15 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
@@ -33993,10 +33993,10 @@
       <c r="C38" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="74"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="73"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
@@ -34008,10 +34008,10 @@
       <c r="C39" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="74"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
@@ -34023,12 +34023,12 @@
       <c r="C40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="72" t="s">
+      <c r="D40" s="71" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="74"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="73"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
@@ -34058,12 +34058,12 @@
       <c r="C44" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="70" t="s">
+      <c r="D44" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
@@ -34075,10 +34075,10 @@
       <c r="C45" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="74"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
@@ -34090,10 +34090,10 @@
       <c r="C46" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="74"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
@@ -34105,12 +34105,12 @@
       <c r="C47" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="76"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
@@ -34122,10 +34122,10 @@
       <c r="C48" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="76"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
@@ -34137,10 +34137,10 @@
       <c r="C49" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="76"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="75"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
@@ -34152,10 +34152,10 @@
       <c r="C50" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="76"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="74"/>
+      <c r="G50" s="75"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
@@ -34167,10 +34167,10 @@
       <c r="C51" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="72"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="76"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="75"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
@@ -34182,10 +34182,10 @@
       <c r="C52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="76"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="75"/>
     </row>
     <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -34215,26 +34215,26 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="B59" s="73"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="74"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
     </row>
     <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="69"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="69"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="69"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
@@ -34365,15 +34365,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="69"/>
-      <c r="F69" s="69"/>
-      <c r="G69" s="69"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
@@ -34402,12 +34402,12 @@
       <c r="C71" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D71" s="72" t="s">
+      <c r="D71" s="71" t="s">
         <v>426</v>
       </c>
-      <c r="E71" s="73"/>
-      <c r="F71" s="73"/>
-      <c r="G71" s="74"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="73"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
@@ -34419,12 +34419,12 @@
       <c r="C72" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="71" t="s">
         <v>429</v>
       </c>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="74"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="73"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
@@ -34449,12 +34449,12 @@
       <c r="C76" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="70"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
@@ -34466,10 +34466,10 @@
       <c r="C77" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
@@ -34481,10 +34481,10 @@
       <c r="C78" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" s="67"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
@@ -34496,10 +34496,10 @@
       <c r="C79" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
@@ -34511,10 +34511,10 @@
       <c r="C80" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
@@ -34526,12 +34526,12 @@
       <c r="C81" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D81" s="72" t="s">
+      <c r="D81" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="E81" s="75"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="76"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="75"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
@@ -34543,10 +34543,10 @@
       <c r="C82" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
@@ -34558,10 +34558,10 @@
       <c r="C83" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
@@ -34573,31 +34573,23 @@
       <c r="C84" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
+      <c r="G84" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="D17:G17"/>
     <mergeCell ref="A61:G61"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="D47:G47"/>
@@ -34614,16 +34606,24 @@
     <mergeCell ref="D49:G49"/>
     <mergeCell ref="D48:G48"/>
     <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D76:G76"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="D71:G71"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D84:G84"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="D79:G79"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="D81:G81"/>
+    <mergeCell ref="D82:G82"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
@@ -34643,8 +34643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W81" sqref="W81"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34958,8 +34958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
+++ b/策划案/Java/MEC边缘云平台客户自助系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="文档说明" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="693">
   <si>
     <t>负责人名</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -3483,11 +3483,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>完成界面UE的初步设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>褚智勇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>完成界面UE的初步设计</t>
+    <t>把UI制作的图同步到文档中</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4048,7 +4052,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4160,6 +4164,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4339,57 +4345,19 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>646069</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>170620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="2124075"/>
-          <a:ext cx="13047619" cy="6638095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>238125</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>73</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>19</xdr:col>
           <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>83</xdr:row>
+          <xdr:row>96</xdr:row>
           <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4429,23 +4397,18 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>598443</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>199198</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>169338</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4462,8 +4425,403 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="914400"/>
-          <a:ext cx="13057143" cy="6619048"/>
+          <a:off x="200025" y="2114550"/>
+          <a:ext cx="16895238" cy="9523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>74088</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>113111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="866775"/>
+          <a:ext cx="16895238" cy="9514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>474372</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11153775"/>
+          <a:ext cx="15019047" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>283902</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="12868275"/>
+          <a:ext cx="14780952" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>293436</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>199956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="15363825"/>
+          <a:ext cx="14714286" cy="552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>350563</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>47137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17726025"/>
+          <a:ext cx="14895238" cy="3904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>45514</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>122633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="857250"/>
+          <a:ext cx="16885714" cy="9533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>531518</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="11172825"/>
+          <a:ext cx="15057143" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>121990</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123556</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="12849225"/>
+          <a:ext cx="14676190" cy="2152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>160081</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>75988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="16192500"/>
+          <a:ext cx="14752381" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>150290</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>122633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="1066800"/>
+          <a:ext cx="16876190" cy="9533333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4476,14 +4834,171 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>389086</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152329</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>436281</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="714375" y="15297150"/>
+          <a:ext cx="14952381" cy="504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>302936</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="17030700"/>
+          <a:ext cx="14914286" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>703037</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>18749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="18983325"/>
+          <a:ext cx="14504762" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>359843</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>103583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="428625" y="1047750"/>
+          <a:ext cx="16857143" cy="9533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>407468</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4500,8 +5015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="8382000"/>
-          <a:ext cx="11514286" cy="571429"/>
+          <a:off x="476250" y="20535900"/>
+          <a:ext cx="16857143" cy="9523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4512,16 +5027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>141467</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>180874</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>293159</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>84537</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4538,8 +5053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="9429750"/>
-          <a:ext cx="11266667" cy="809524"/>
+          <a:off x="295275" y="31861125"/>
+          <a:ext cx="16923809" cy="9504762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4550,16 +5065,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>522511</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>209450</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>274115</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>103584</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4576,8 +5091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="10725150"/>
-          <a:ext cx="10914286" cy="800000"/>
+          <a:off x="323850" y="42757725"/>
+          <a:ext cx="16876190" cy="9523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4588,20 +5103,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>122405</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>151862</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>321739</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4614,8 +5129,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="600075" y="12192000"/>
-          <a:ext cx="11361905" cy="4304762"/>
+          <a:off x="361950" y="52825650"/>
+          <a:ext cx="16885714" cy="9523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294831</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="11391900"/>
+          <a:ext cx="3552381" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>588672</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>171144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="13020675"/>
+          <a:ext cx="15019047" cy="2447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>531545</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>66386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="17030700"/>
+          <a:ext cx="14838095" cy="2314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4627,334 +5256,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>503371</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>104710</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714375" y="8382000"/>
-          <a:ext cx="11628571" cy="523810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>541573</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>75929</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714375" y="12363450"/>
-          <a:ext cx="10819048" cy="2171429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>598443</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>37274</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="971550"/>
-          <a:ext cx="13057143" cy="6609524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>55752</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>171140</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714375" y="10058400"/>
-          <a:ext cx="11180952" cy="2476190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>370040</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>85667</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="733425" y="8629650"/>
-          <a:ext cx="11476190" cy="466667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>217606</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>170626</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="1123950"/>
-          <a:ext cx="11752381" cy="6590476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>703477</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>85662</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="714375" y="14249400"/>
-          <a:ext cx="10980952" cy="504762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>760614</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>94888</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="666750" y="16268700"/>
-          <a:ext cx="11085714" cy="2895238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36463</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142045</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>293161</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4971,8 +5286,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="1047750"/>
-          <a:ext cx="13095238" cy="6638095"/>
+          <a:off x="304800" y="1066800"/>
+          <a:ext cx="16914286" cy="9523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4985,14 +5300,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>55511</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>436039</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5009,8 +5324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="8591550"/>
-          <a:ext cx="13114286" cy="6628571"/>
+          <a:off x="476250" y="16973550"/>
+          <a:ext cx="16885714" cy="9523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5023,14 +5338,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>836569</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>161093</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>436039</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>84536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5047,8 +5362,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="476250" y="16344900"/>
-          <a:ext cx="13047619" cy="6657143"/>
+          <a:off x="476250" y="28079700"/>
+          <a:ext cx="16885714" cy="9514286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5059,20 +5374,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>163</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36462</xdr:colOff>
-      <xdr:row>194</xdr:row>
-      <xdr:rowOff>208719</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>407468</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>94059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5085,317 +5400,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="466725" y="34213800"/>
-          <a:ext cx="13104762" cy="6647619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>427153</xdr:colOff>
-      <xdr:row>237</xdr:row>
-      <xdr:rowOff>142049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="43195875"/>
-          <a:ext cx="11771428" cy="6609524"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>732930</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95195</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="981075" y="8458200"/>
-          <a:ext cx="3961905" cy="438095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>93983</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152145</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="10058400"/>
-          <a:ext cx="10133333" cy="2038095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>55888</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9236</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952500" y="13620750"/>
-          <a:ext cx="10095238" cy="2314286"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>7884</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>199192</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="419100" y="1076325"/>
-          <a:ext cx="13123809" cy="6666667"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>26938</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>189671</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="466725" y="14097000"/>
-          <a:ext cx="13095238" cy="6628571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>55513</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>27743</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="495300" y="22288500"/>
-          <a:ext cx="13095238" cy="6657143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>144</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>817515</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>151559</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="428625" y="30308550"/>
-          <a:ext cx="13076190" cy="6723809"/>
+          <a:off x="476250" y="38766750"/>
+          <a:ext cx="16857143" cy="9523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5673,7 +5679,7 @@
   <dimension ref="B1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
@@ -5688,12 +5694,12 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="2:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -5702,10 +5708,10 @@
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="61" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5716,26 +5722,26 @@
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="62"/>
     </row>
     <row r="5" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -5744,10 +5750,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7">
@@ -5756,144 +5762,150 @@
       <c r="C8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="7">
         <v>43998</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="49" t="s">
         <v>690</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>44011</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="49" t="s">
+        <v>692</v>
+      </c>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="48"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="48"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -5950,10 +5962,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="U112" sqref="U112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6040,289 +6052,302 @@
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="44" t="s">
+    <row r="39" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B52" s="44" t="s">
         <v>569</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B40" s="45" t="s">
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="43"/>
+      <c r="Z52" s="43"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B53" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C53" s="46" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C41" s="46" t="s">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C54" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D41" s="46" t="s">
+      <c r="D54" s="46" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C42" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C43" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C44" s="46" t="s">
-        <v>608</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C45" s="46" t="s">
-        <v>610</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B46" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="C46" s="46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C47" s="46" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C48" s="46"/>
-      <c r="D48" s="46" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C49" s="46" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C50" s="46"/>
-      <c r="D50" s="46" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C51" s="46" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C52" s="46"/>
-      <c r="D52" s="46" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C53" s="46" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C54" s="46"/>
-      <c r="D54" s="46" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C55" s="46" t="s">
-        <v>613</v>
+        <v>513</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C56" s="46" t="s">
+        <v>529</v>
+      </c>
       <c r="D56" s="46" t="s">
-        <v>618</v>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C57" s="46" t="s">
+        <v>608</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>563</v>
-      </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
+      <c r="C58" s="46" t="s">
+        <v>610</v>
+      </c>
+      <c r="D58" s="46" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B59" s="45" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>564</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C60" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>554</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C61" s="46"/>
+      <c r="D61" s="46" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C62" s="46" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C63" s="46"/>
+      <c r="D63" s="46" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C64" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C65" s="46"/>
       <c r="D65" s="46" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C66" s="46" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C68" s="46" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D69" s="46" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A71" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B72" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C73" s="46" t="s">
+        <v>525</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C77" s="46" t="s">
+        <v>513</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C78" s="46"/>
+      <c r="D78" s="46" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="45" t="s">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B80" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C80" s="46" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C68" s="46" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C81" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D68" s="46" t="s">
+      <c r="D81" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C72" s="46" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C85" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D85" s="46" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D73" s="46" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="46" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C74" s="46" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D87" s="46" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C75" s="46"/>
-      <c r="D75" s="46" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C88" s="46"/>
+      <c r="D88" s="46" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="45" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C89" s="46" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C77" s="46" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C90" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D77" s="46" t="s">
+      <c r="D90" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C93" s="46" t="s">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C104" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="D93" s="46" t="s">
+      <c r="D104" s="46" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D94" s="46" t="s">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="46" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D95" s="46" t="s">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="46" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D96" s="46" t="s">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="46" t="s">
         <v>627</v>
       </c>
     </row>
@@ -6335,10 +6360,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z240"/>
+  <dimension ref="A1:Z310"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C241" sqref="C241"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Z92" sqref="Z92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6466,424 +6491,391 @@
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+    <row r="38" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:5" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C52" s="46" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" s="45"/>
+      <c r="C53" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D53" s="46" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="45"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E40" s="46" t="s">
+      <c r="E54" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="46"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="46" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" s="45"/>
+      <c r="C55" s="46"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="45"/>
+      <c r="C56" s="46"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="45"/>
+      <c r="C57" s="46"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" s="45"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E58" s="46" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="45"/>
-      <c r="C45" s="46"/>
-      <c r="E45" s="46" t="s">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="E59" s="46" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="E46" s="46" t="s">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="45"/>
+      <c r="C60" s="46"/>
+      <c r="E60" s="46" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="45"/>
-      <c r="C47" s="46" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" s="45"/>
+      <c r="C61" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="D47" s="46" t="s">
+      <c r="D61" s="46" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46" t="s">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" s="45"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="E48" s="46" t="s">
+      <c r="E62" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D59" s="46" t="s">
-        <v>630</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D60" s="46"/>
-      <c r="E60" s="46" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D61" s="46" t="s">
-        <v>636</v>
-      </c>
-      <c r="E61" s="46" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D62" s="46"/>
-      <c r="E62" s="46" t="s">
-        <v>638</v>
-      </c>
-    </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="46" t="s">
-        <v>639</v>
-      </c>
+      <c r="B63" s="45"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="D64" s="46" t="s">
-        <v>640</v>
-      </c>
-      <c r="E64" s="46"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="45"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="45"/>
       <c r="C65" s="46"/>
-      <c r="D65" s="46" t="s">
-        <v>641</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D65" s="46"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="45"/>
       <c r="C66" s="46"/>
       <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C71" s="46"/>
-      <c r="D71" s="46"/>
-      <c r="E71" s="46"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E72" s="46"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D78" s="46" t="s">
+    </row>
+    <row r="73" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D75" s="46" t="s">
         <v>630</v>
       </c>
+      <c r="E75" s="46" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D76" s="46"/>
+      <c r="E76" s="46" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D77" s="46" t="s">
+        <v>636</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D78" s="46"/>
       <c r="E78" s="46" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="46" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C80" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="D80" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="E80" s="46"/>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" s="46"/>
+      <c r="D81" s="46" t="s">
+        <v>641</v>
+      </c>
+      <c r="E81" s="46" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="46"/>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D94" s="46" t="s">
+        <v>630</v>
+      </c>
+      <c r="E94" s="46" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E79" s="46" t="s">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="46" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E80" s="46" t="s">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="46" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="E81" s="46" t="s">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E97" s="46" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="44" t="s">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B99" s="44" t="s">
         <v>576</v>
       </c>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="43"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="43"/>
-      <c r="Y83" s="43"/>
-      <c r="Z83" s="43"/>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B84" s="45" t="s">
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
+      <c r="M99" s="43"/>
+      <c r="N99" s="43"/>
+      <c r="O99" s="43"/>
+      <c r="P99" s="43"/>
+      <c r="Q99" s="43"/>
+      <c r="R99" s="43"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="43"/>
+      <c r="U99" s="43"/>
+      <c r="V99" s="43"/>
+      <c r="W99" s="43"/>
+      <c r="X99" s="43"/>
+      <c r="Y99" s="43"/>
+      <c r="Z99" s="43"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B100" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="C84" s="46" t="s">
+      <c r="C100" s="46" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B118" s="45" t="s">
+    <row r="134" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B147" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="C118" s="46" t="s">
+      <c r="C147" s="46" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B119" s="45"/>
-      <c r="C119" s="46" t="s">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B148" s="45"/>
+      <c r="C148" s="46" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B120" s="45"/>
-      <c r="C120" s="46"/>
-    </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B121" s="45"/>
-      <c r="C121" s="46"/>
-    </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B122" s="45"/>
-      <c r="C122" s="46"/>
-    </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A124" s="44" t="s">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B149" s="45"/>
+      <c r="C149" s="46"/>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B150" s="45"/>
+      <c r="C150" s="46"/>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B151" s="45"/>
+      <c r="C151" s="46"/>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A153" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="B124" s="44" t="s">
+      <c r="B153" s="44" t="s">
         <v>577</v>
       </c>
-      <c r="C124" s="43"/>
-      <c r="D124" s="43"/>
-      <c r="E124" s="43"/>
-      <c r="F124" s="43"/>
-      <c r="G124" s="43"/>
-      <c r="H124" s="43"/>
-      <c r="I124" s="43"/>
-      <c r="J124" s="43"/>
-      <c r="K124" s="43"/>
-      <c r="L124" s="43"/>
-      <c r="M124" s="43"/>
-      <c r="N124" s="43"/>
-      <c r="O124" s="43"/>
-      <c r="P124" s="43"/>
-      <c r="Q124" s="43"/>
-      <c r="R124" s="43"/>
-      <c r="S124" s="43"/>
-      <c r="T124" s="43"/>
-      <c r="U124" s="43"/>
-      <c r="V124" s="43"/>
-      <c r="W124" s="43"/>
-      <c r="X124" s="43"/>
-      <c r="Y124" s="43"/>
-      <c r="Z124" s="43"/>
-    </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B125" s="45" t="s">
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
+      <c r="I153" s="43"/>
+      <c r="J153" s="43"/>
+      <c r="K153" s="43"/>
+      <c r="L153" s="43"/>
+      <c r="M153" s="43"/>
+      <c r="N153" s="43"/>
+      <c r="O153" s="43"/>
+      <c r="P153" s="43"/>
+      <c r="Q153" s="43"/>
+      <c r="R153" s="43"/>
+      <c r="S153" s="43"/>
+      <c r="T153" s="43"/>
+      <c r="U153" s="43"/>
+      <c r="V153" s="43"/>
+      <c r="W153" s="43"/>
+      <c r="X153" s="43"/>
+      <c r="Y153" s="43"/>
+      <c r="Z153" s="43"/>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B154" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="C125" s="46" t="s">
+      <c r="C154" s="46" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B158" s="45" t="s">
+    <row r="155" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="45"/>
+      <c r="C155" s="46"/>
+    </row>
+    <row r="158" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="200" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B201" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="C158" s="46" t="s">
+      <c r="C201" s="46" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B159" s="45"/>
-      <c r="C159" s="46" t="s">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B202" s="45"/>
+      <c r="C202" s="46" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B160" s="45"/>
-      <c r="C160" s="46"/>
-    </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A162" s="44" t="s">
-        <v>578</v>
-      </c>
-      <c r="B162" s="44" t="s">
-        <v>579</v>
-      </c>
-      <c r="C162" s="43"/>
-      <c r="D162" s="43"/>
-      <c r="E162" s="43"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="43"/>
-      <c r="H162" s="43"/>
-      <c r="I162" s="43"/>
-      <c r="J162" s="43"/>
-      <c r="K162" s="43"/>
-      <c r="L162" s="43"/>
-      <c r="M162" s="43"/>
-      <c r="N162" s="43"/>
-      <c r="O162" s="43"/>
-      <c r="P162" s="43"/>
-      <c r="Q162" s="43"/>
-      <c r="R162" s="43"/>
-      <c r="S162" s="43"/>
-      <c r="T162" s="43"/>
-      <c r="U162" s="43"/>
-      <c r="V162" s="43"/>
-      <c r="W162" s="43"/>
-      <c r="X162" s="43"/>
-      <c r="Y162" s="43"/>
-      <c r="Z162" s="43"/>
-    </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B163" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="C163" s="46" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B196" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="C196" s="46" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C197" s="46" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C198" s="46" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C199" s="46" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B200" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C200" s="46" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C201" s="46" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C202" s="46"/>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B203" s="45"/>
+      <c r="C203" s="46"/>
     </row>
     <row r="205" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A205" s="44" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B205" s="44" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C205" s="43"/>
       <c r="D205" s="43"/>
@@ -6918,16 +6910,122 @@
         <v>522</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B239" s="45" t="s">
+    <row r="239" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="240" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="241" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="242" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="243" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="245" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="246" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="248" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="249" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="250" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="251" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="252" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="C239" s="46" t="s">
+      <c r="C253" s="46" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C240" s="46" t="s">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="46" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="46" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="46" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B257" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="C257" s="46" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C258" s="46" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A260" s="44" t="s">
+        <v>580</v>
+      </c>
+      <c r="B260" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="C260" s="43"/>
+      <c r="D260" s="43"/>
+      <c r="E260" s="43"/>
+      <c r="F260" s="43"/>
+      <c r="G260" s="43"/>
+      <c r="H260" s="43"/>
+      <c r="I260" s="43"/>
+      <c r="J260" s="43"/>
+      <c r="K260" s="43"/>
+      <c r="L260" s="43"/>
+      <c r="M260" s="43"/>
+      <c r="N260" s="43"/>
+      <c r="O260" s="43"/>
+      <c r="P260" s="43"/>
+      <c r="Q260" s="43"/>
+      <c r="R260" s="43"/>
+      <c r="S260" s="43"/>
+      <c r="T260" s="43"/>
+      <c r="U260" s="43"/>
+      <c r="V260" s="43"/>
+      <c r="W260" s="43"/>
+      <c r="X260" s="43"/>
+      <c r="Y260" s="43"/>
+      <c r="Z260" s="43"/>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B261" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="C261" s="46" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="294" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="295" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="296" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="297" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="298" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="299" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="300" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="301" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="302" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="303" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="304" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="305" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="306" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="307" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="308" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B309" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="C309" s="46" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C310" s="46" t="s">
         <v>652</v>
       </c>
     </row>
@@ -6940,10 +7038,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z179"/>
+  <dimension ref="A1:Z233"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7030,374 +7128,428 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+    <row r="38" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:4" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:4" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:4" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="C38" s="46" t="s">
+      <c r="C52" s="46" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C39" s="46" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D41" s="46" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C42" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="D42" s="46" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D43" s="46" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="C44" s="46" t="s">
-        <v>657</v>
-      </c>
-      <c r="D44" s="46"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C45" s="46" t="s">
-        <v>525</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C46" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="D46" s="46" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="D47" s="46" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C48" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="D48" s="46" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C49" s="46"/>
-      <c r="D49" s="46" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C50" s="46" t="s">
-        <v>662</v>
-      </c>
-      <c r="D50" s="46" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" s="46"/>
-      <c r="D51" s="46" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" s="46" t="s">
-        <v>664</v>
-      </c>
-      <c r="D52" s="46" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C53" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="D53" s="46" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" s="46"/>
+      <c r="C54" s="46" t="s">
+        <v>525</v>
+      </c>
       <c r="D54" s="46" t="s">
-        <v>668</v>
+        <v>620</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C55" s="46" t="s">
-        <v>669</v>
-      </c>
       <c r="D55" s="46" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C56" s="46"/>
+      <c r="C56" s="46" t="s">
+        <v>513</v>
+      </c>
       <c r="D56" s="46" t="s">
-        <v>671</v>
+        <v>622</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C57" s="46"/>
       <c r="D57" s="46" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="45" t="s">
-        <v>673</v>
+        <v>518</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="D58" s="46"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="45"/>
       <c r="C59" s="46" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
+      <c r="C60" s="46" t="s">
+        <v>513</v>
+      </c>
       <c r="D60" s="46" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="45"/>
       <c r="C61" s="46" t="s">
-        <v>602</v>
+        <v>529</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="45"/>
-      <c r="C62" s="46"/>
+      <c r="C62" s="46" t="s">
+        <v>661</v>
+      </c>
       <c r="D62" s="46" t="s">
-        <v>678</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="45"/>
-      <c r="C63" s="46" t="s">
-        <v>679</v>
-      </c>
+      <c r="C63" s="46"/>
       <c r="D63" s="46" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" s="46"/>
+      <c r="C64" s="46" t="s">
+        <v>662</v>
+      </c>
       <c r="D64" s="46" t="s">
-        <v>681</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C65" s="46"/>
-      <c r="D65" s="46"/>
+      <c r="D65" s="46" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
+      <c r="C66" s="46" t="s">
+        <v>664</v>
+      </c>
+      <c r="D66" s="46" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C67" s="46" t="s">
+        <v>666</v>
+      </c>
+      <c r="D67" s="46" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C68" s="46"/>
+      <c r="D68" s="46" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C69" s="46" t="s">
+        <v>669</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C70" s="46"/>
+      <c r="D70" s="46" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C71" s="46"/>
+      <c r="D71" s="46" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B72" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>674</v>
+      </c>
+      <c r="D72" s="46"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B73" s="45"/>
+      <c r="C73" s="46" t="s">
+        <v>511</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B74" s="45"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B75" s="45"/>
+      <c r="C75" s="46" t="s">
+        <v>602</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B76" s="45"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B77" s="45"/>
+      <c r="C77" s="46" t="s">
+        <v>679</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C78" s="46"/>
+      <c r="D78" s="46" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A80" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B80" s="44" t="s">
         <v>584</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B67" s="45" t="s">
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="43"/>
+      <c r="K80" s="43"/>
+      <c r="L80" s="43"/>
+      <c r="M80" s="43"/>
+      <c r="N80" s="43"/>
+      <c r="O80" s="43"/>
+      <c r="P80" s="43"/>
+      <c r="Q80" s="43"/>
+      <c r="R80" s="43"/>
+      <c r="S80" s="43"/>
+      <c r="T80" s="43"/>
+      <c r="U80" s="43"/>
+      <c r="V80" s="43"/>
+      <c r="W80" s="43"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="43"/>
+      <c r="Z80" s="43"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C67" s="46" t="s">
+      <c r="C81" s="46" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B100" s="45" t="s">
+    <row r="106" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C128" s="46" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C101" s="46" t="s">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C129" s="46" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C102" s="46" t="s">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C130" s="46" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C103" s="46" t="s">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C131" s="46" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="44" t="s">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A133" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="B105" s="44" t="s">
+      <c r="B133" s="44" t="s">
         <v>585</v>
       </c>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="43"/>
-      <c r="N105" s="43"/>
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
-      <c r="Q105" s="43"/>
-      <c r="R105" s="43"/>
-      <c r="S105" s="43"/>
-      <c r="T105" s="43"/>
-      <c r="U105" s="43"/>
-      <c r="V105" s="43"/>
-      <c r="W105" s="43"/>
-      <c r="X105" s="43"/>
-      <c r="Y105" s="43"/>
-      <c r="Z105" s="43"/>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B106" s="45" t="s">
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="43"/>
+      <c r="N133" s="43"/>
+      <c r="O133" s="43"/>
+      <c r="P133" s="43"/>
+      <c r="Q133" s="43"/>
+      <c r="R133" s="43"/>
+      <c r="S133" s="43"/>
+      <c r="T133" s="43"/>
+      <c r="U133" s="43"/>
+      <c r="V133" s="43"/>
+      <c r="W133" s="43"/>
+      <c r="X133" s="43"/>
+      <c r="Y133" s="43"/>
+      <c r="Z133" s="43"/>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B134" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C106" s="46" t="s">
+      <c r="C134" s="46" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B140" s="45" t="s">
+    <row r="168" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" spans="1:26" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B181" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="C140" s="46" t="s">
+      <c r="C181" s="46" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C141" s="46" t="s">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C182" s="46" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A143" s="44" t="s">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A184" s="44" t="s">
         <v>578</v>
       </c>
-      <c r="B143" s="44" t="s">
+      <c r="B184" s="44" t="s">
         <v>586</v>
       </c>
-      <c r="C143" s="43"/>
-      <c r="D143" s="43"/>
-      <c r="E143" s="43"/>
-      <c r="F143" s="43"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
-      <c r="I143" s="43"/>
-      <c r="J143" s="43"/>
-      <c r="K143" s="43"/>
-      <c r="L143" s="43"/>
-      <c r="M143" s="43"/>
-      <c r="N143" s="43"/>
-      <c r="O143" s="43"/>
-      <c r="P143" s="43"/>
-      <c r="Q143" s="43"/>
-      <c r="R143" s="43"/>
-      <c r="S143" s="43"/>
-      <c r="T143" s="43"/>
-      <c r="U143" s="43"/>
-      <c r="V143" s="43"/>
-      <c r="W143" s="43"/>
-      <c r="X143" s="43"/>
-      <c r="Y143" s="43"/>
-      <c r="Z143" s="43"/>
-    </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B144" s="45" t="s">
+      <c r="C184" s="43"/>
+      <c r="D184" s="43"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="43"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
+      <c r="I184" s="43"/>
+      <c r="J184" s="43"/>
+      <c r="K184" s="43"/>
+      <c r="L184" s="43"/>
+      <c r="M184" s="43"/>
+      <c r="N184" s="43"/>
+      <c r="O184" s="43"/>
+      <c r="P184" s="43"/>
+      <c r="Q184" s="43"/>
+      <c r="R184" s="43"/>
+      <c r="S184" s="43"/>
+      <c r="T184" s="43"/>
+      <c r="U184" s="43"/>
+      <c r="V184" s="43"/>
+      <c r="W184" s="43"/>
+      <c r="X184" s="43"/>
+      <c r="Y184" s="43"/>
+      <c r="Z184" s="43"/>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B185" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C144" s="46" t="s">
+      <c r="C185" s="46" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B178" s="45" t="s">
+    <row r="219" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="220" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="221" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="222" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="223" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="224" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="225" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="226" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="227" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="228" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="229" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="230" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="231" spans="2:3" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="C178" s="46" t="s">
+      <c r="C232" s="46" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="46" t="s">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="46" t="s">
         <v>688</v>
       </c>
     </row>
@@ -7423,37 +7575,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" s="16" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
-      <c r="R2" s="68" t="s">
+      <c r="R2" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
     </row>
     <row r="3" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
@@ -28267,15 +28419,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -28283,15 +28435,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -28321,28 +28473,28 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
@@ -28410,15 +28562,15 @@
       <c r="G15" s="29"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
@@ -28509,26 +28661,26 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
     </row>
     <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
@@ -28575,15 +28727,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -28595,12 +28747,12 @@
       <c r="C33" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="69" t="s">
+      <c r="D33" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
@@ -28612,12 +28764,12 @@
       <c r="C34" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
     </row>
     <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
@@ -28629,12 +28781,12 @@
       <c r="C35" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
@@ -28646,12 +28798,12 @@
       <c r="C36" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
     </row>
     <row r="37" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
@@ -28663,12 +28815,12 @@
       <c r="C37" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="29" t="s">
@@ -28680,12 +28832,12 @@
       <c r="C38" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D38" s="67" t="s">
+      <c r="D38" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
@@ -28697,12 +28849,12 @@
       <c r="C39" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="D39" s="67" t="s">
+      <c r="D39" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="35" t="s">
@@ -28732,12 +28884,12 @@
       <c r="C43" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
@@ -28749,10 +28901,10 @@
       <c r="C44" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
     </row>
     <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
@@ -28764,10 +28916,10 @@
       <c r="C45" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
@@ -28779,10 +28931,10 @@
       <c r="C46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="29" t="s">
@@ -28794,10 +28946,10 @@
       <c r="C47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
     </row>
     <row r="48" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="29" t="s">
@@ -28809,10 +28961,10 @@
       <c r="C48" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
     </row>
     <row r="49" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A49" s="29" t="s">
@@ -28824,10 +28976,10 @@
       <c r="C49" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
     </row>
     <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
@@ -28839,10 +28991,10 @@
       <c r="C50" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="35" t="s">
@@ -28872,12 +29024,12 @@
       <c r="C54" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
@@ -28889,10 +29041,10 @@
       <c r="C55" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
@@ -28904,10 +29056,10 @@
       <c r="C56" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="67"/>
+      <c r="D56" s="69"/>
+      <c r="E56" s="69"/>
+      <c r="F56" s="69"/>
+      <c r="G56" s="69"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
@@ -28919,10 +29071,10 @@
       <c r="C57" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -28992,15 +29144,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -29008,15 +29160,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -29046,27 +29198,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
@@ -29176,15 +29328,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
@@ -29196,12 +29348,12 @@
       <c r="C19" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
@@ -29213,12 +29365,12 @@
       <c r="C20" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="73" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
@@ -29230,12 +29382,12 @@
       <c r="C21" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
@@ -29247,12 +29399,12 @@
       <c r="C22" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="24" spans="1:7" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
@@ -29269,12 +29421,12 @@
       <c r="C25" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
     </row>
     <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -29286,10 +29438,10 @@
       <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
@@ -29301,10 +29453,10 @@
       <c r="C27" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
     </row>
     <row r="30" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
@@ -29340,26 +29492,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="71" t="s">
+      <c r="A33" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="75"/>
     </row>
     <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
     </row>
     <row r="36" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
@@ -29427,15 +29579,15 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
     </row>
     <row r="41" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
@@ -29447,12 +29599,12 @@
       <c r="C41" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="69" t="s">
+      <c r="D41" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
     </row>
     <row r="42" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
@@ -29464,10 +29616,10 @@
       <c r="C42" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
@@ -29479,10 +29631,10 @@
       <c r="C43" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -29506,12 +29658,12 @@
       <c r="C46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
@@ -29523,10 +29675,10 @@
       <c r="C47" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
@@ -29538,10 +29690,10 @@
       <c r="C48" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -29553,10 +29705,10 @@
       <c r="C49" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
     </row>
     <row r="51" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="35" t="s">
@@ -29586,12 +29738,12 @@
       <c r="C53" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D53" s="69" t="s">
+      <c r="D53" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -29603,12 +29755,12 @@
       <c r="C54" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="71" t="s">
+      <c r="D54" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
-      <c r="G54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="77"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -29620,12 +29772,12 @@
       <c r="C55" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="71" t="s">
+      <c r="D55" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="75"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -29637,12 +29789,12 @@
       <c r="C56" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D56" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="75"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="77"/>
     </row>
     <row r="57" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29673,26 +29825,26 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="71" t="s">
+      <c r="A62" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="B62" s="72"/>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="F62" s="72"/>
-      <c r="G62" s="73"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="74"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="75"/>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -29760,15 +29912,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
@@ -29780,12 +29932,12 @@
       <c r="C70" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="69" t="s">
+      <c r="D70" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -29797,10 +29949,10 @@
       <c r="C71" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
+      <c r="D71" s="69"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -29812,10 +29964,10 @@
       <c r="C72" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
@@ -29827,10 +29979,10 @@
       <c r="C73" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
@@ -29842,10 +29994,10 @@
       <c r="C74" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D74" s="67"/>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="34">
@@ -29922,15 +30074,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -29938,15 +30090,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -29976,27 +30128,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -30106,15 +30258,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -30126,12 +30278,12 @@
       <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -30143,12 +30295,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -30160,12 +30312,12 @@
       <c r="C21" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="23" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -30196,26 +30348,26 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="75"/>
     </row>
     <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="s">
@@ -30304,15 +30456,15 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
@@ -30324,12 +30476,12 @@
       <c r="C37" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
@@ -30341,12 +30493,12 @@
       <c r="C38" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
@@ -30358,12 +30510,12 @@
       <c r="C39" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
@@ -30375,12 +30527,12 @@
       <c r="C40" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="75"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
@@ -30392,12 +30544,12 @@
       <c r="C41" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D41" s="71" t="s">
+      <c r="D41" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="73"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="32"/>
@@ -30441,12 +30593,12 @@
       <c r="C46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="69" t="s">
+      <c r="D46" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
@@ -30458,12 +30610,12 @@
       <c r="C47" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="73"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="75"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
@@ -30475,12 +30627,12 @@
       <c r="C48" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D48" s="76" t="s">
+      <c r="D48" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -30492,12 +30644,12 @@
       <c r="C49" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D49" s="76" t="s">
+      <c r="D49" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
@@ -30509,12 +30661,12 @@
       <c r="C50" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="76" t="s">
+      <c r="D50" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="67"/>
+      <c r="E50" s="69"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
@@ -30526,12 +30678,12 @@
       <c r="C51" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D51" s="76" t="s">
+      <c r="D51" s="78" t="s">
         <v>467</v>
       </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
     </row>
     <row r="52" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -30563,26 +30715,26 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="73"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="75"/>
     </row>
     <row r="59" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
     </row>
     <row r="60" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="s">
@@ -30650,15 +30802,15 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="70"/>
     </row>
     <row r="65" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -30670,12 +30822,12 @@
       <c r="C65" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D65" s="69" t="s">
+      <c r="D65" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E65" s="69"/>
-      <c r="F65" s="69"/>
-      <c r="G65" s="69"/>
+      <c r="E65" s="71"/>
+      <c r="F65" s="71"/>
+      <c r="G65" s="71"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -30687,12 +30839,12 @@
       <c r="C66" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="75"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -30704,12 +30856,12 @@
       <c r="C67" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="76" t="s">
+      <c r="D67" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="69"/>
+      <c r="G67" s="69"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -30721,12 +30873,12 @@
       <c r="C68" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D68" s="76" t="s">
+      <c r="D68" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="E68" s="67"/>
-      <c r="F68" s="67"/>
-      <c r="G68" s="67"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="69"/>
+      <c r="G68" s="69"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -30738,12 +30890,12 @@
       <c r="C69" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="D69" s="76" t="s">
+      <c r="D69" s="78" t="s">
         <v>497</v>
       </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
+      <c r="E69" s="69"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="69"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="27" t="s">
@@ -30755,12 +30907,12 @@
       <c r="C70" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="76" t="s">
+      <c r="D70" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
+      <c r="E70" s="69"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="69"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
@@ -30772,12 +30924,12 @@
       <c r="C71" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D71" s="76" t="s">
+      <c r="D71" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
+      <c r="E71" s="69"/>
+      <c r="F71" s="69"/>
+      <c r="G71" s="69"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="27" t="s">
@@ -30789,12 +30941,12 @@
       <c r="C72" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="76" t="s">
+      <c r="D72" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="67"/>
-      <c r="F72" s="67"/>
-      <c r="G72" s="67"/>
+      <c r="E72" s="69"/>
+      <c r="F72" s="69"/>
+      <c r="G72" s="69"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
@@ -30806,12 +30958,12 @@
       <c r="C73" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D73" s="76" t="s">
+      <c r="D73" s="78" t="s">
         <v>236</v>
       </c>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -30823,12 +30975,12 @@
       <c r="C74" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="76" t="s">
+      <c r="D74" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -30840,12 +30992,12 @@
       <c r="C75" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="76" t="s">
+      <c r="D75" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -30857,12 +31009,12 @@
       <c r="C76" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D76" s="76" t="s">
+      <c r="D76" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
@@ -30874,12 +31026,12 @@
       <c r="C77" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
@@ -30891,12 +31043,12 @@
       <c r="C78" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D78" s="76" t="s">
+      <c r="D78" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
     </row>
     <row r="79" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="39" t="s">
@@ -30908,21 +31060,21 @@
       <c r="C79" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="D79" s="76" t="s">
+      <c r="D79" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
     </row>
     <row r="80" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
@@ -30947,12 +31099,12 @@
       <c r="C84" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="69" t="s">
+      <c r="D84" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
     </row>
     <row r="85" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
@@ -30964,10 +31116,10 @@
       <c r="C85" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
@@ -30979,10 +31131,10 @@
       <c r="C86" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
     </row>
     <row r="87" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
@@ -30994,10 +31146,10 @@
       <c r="C87" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
@@ -31009,10 +31161,10 @@
       <c r="C88" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
     </row>
     <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
@@ -31024,10 +31176,10 @@
       <c r="C89" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
@@ -31039,10 +31191,10 @@
       <c r="C90" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
-      <c r="G90" s="67"/>
+      <c r="D90" s="69"/>
+      <c r="E90" s="69"/>
+      <c r="F90" s="69"/>
+      <c r="G90" s="69"/>
     </row>
     <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
@@ -31054,10 +31206,10 @@
       <c r="C91" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
+      <c r="D91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
     </row>
     <row r="92" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31083,12 +31235,12 @@
       <c r="C95" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="69" t="s">
+      <c r="D95" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
     </row>
     <row r="96" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="27" t="s">
@@ -31098,10 +31250,10 @@
         <v>210</v>
       </c>
       <c r="C96" s="19"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="81"/>
     </row>
     <row r="97" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="27" t="s">
@@ -31111,10 +31263,10 @@
         <v>339</v>
       </c>
       <c r="C97" s="19"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="79"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="81"/>
     </row>
     <row r="98" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="27" t="s">
@@ -31124,10 +31276,10 @@
         <v>341</v>
       </c>
       <c r="C98" s="19"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="81"/>
     </row>
     <row r="99" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
@@ -31137,10 +31289,10 @@
         <v>343</v>
       </c>
       <c r="C99" s="19"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="81"/>
     </row>
     <row r="100" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27" t="s">
@@ -31150,10 +31302,10 @@
         <v>345</v>
       </c>
       <c r="C100" s="19"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="79"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
+      <c r="G100" s="81"/>
     </row>
     <row r="101" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27" t="s">
@@ -31163,10 +31315,10 @@
         <v>347</v>
       </c>
       <c r="C101" s="19"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="79"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
+      <c r="G101" s="81"/>
     </row>
     <row r="102" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="27" t="s">
@@ -31176,10 +31328,10 @@
         <v>349</v>
       </c>
       <c r="C102" s="19"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
+      <c r="G102" s="81"/>
     </row>
     <row r="103" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="104" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31210,12 +31362,12 @@
       <c r="C106" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D106" s="69" t="s">
+      <c r="D106" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
     </row>
     <row r="107" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="39" t="s">
@@ -31227,10 +31379,10 @@
       <c r="C107" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D107" s="71"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="75"/>
+      <c r="D107" s="73"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
+      <c r="G107" s="77"/>
     </row>
     <row r="108" spans="1:7" s="40" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="39" t="s">
@@ -31242,10 +31394,10 @@
       <c r="C108" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D108" s="71"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="75"/>
+      <c r="D108" s="73"/>
+      <c r="E108" s="76"/>
+      <c r="F108" s="76"/>
+      <c r="G108" s="77"/>
     </row>
     <row r="109" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31271,12 +31423,12 @@
       <c r="C112" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D112" s="69" t="s">
+      <c r="D112" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
     </row>
     <row r="113" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="39" t="s">
@@ -31288,12 +31440,12 @@
       <c r="C113" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D113" s="71" t="s">
+      <c r="D113" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="75"/>
+      <c r="E113" s="76"/>
+      <c r="F113" s="76"/>
+      <c r="G113" s="77"/>
     </row>
     <row r="114" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="39" t="s">
@@ -31305,12 +31457,12 @@
       <c r="C114" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D114" s="71" t="s">
+      <c r="D114" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="75"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
+      <c r="G114" s="77"/>
     </row>
     <row r="115" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="39" t="s">
@@ -31322,12 +31474,12 @@
       <c r="C115" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D115" s="71" t="s">
+      <c r="D115" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="E115" s="74"/>
-      <c r="F115" s="74"/>
-      <c r="G115" s="75"/>
+      <c r="E115" s="76"/>
+      <c r="F115" s="76"/>
+      <c r="G115" s="77"/>
     </row>
     <row r="116" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="117" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31353,12 +31505,12 @@
       <c r="C119" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="69" t="s">
+      <c r="D119" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
     </row>
     <row r="120" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="39" t="s">
@@ -31370,12 +31522,12 @@
       <c r="C120" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D120" s="71" t="s">
+      <c r="D120" s="73" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="74"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="75"/>
+      <c r="E120" s="76"/>
+      <c r="F120" s="76"/>
+      <c r="G120" s="77"/>
     </row>
     <row r="121" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="39" t="s">
@@ -31387,12 +31539,12 @@
       <c r="C121" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="D121" s="71" t="s">
+      <c r="D121" s="73" t="s">
         <v>483</v>
       </c>
-      <c r="E121" s="74"/>
-      <c r="F121" s="74"/>
-      <c r="G121" s="75"/>
+      <c r="E121" s="76"/>
+      <c r="F121" s="76"/>
+      <c r="G121" s="77"/>
     </row>
     <row r="122" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="123" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31418,12 +31570,12 @@
       <c r="C125" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D125" s="69" t="s">
+      <c r="D125" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E125" s="69"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="69"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
     </row>
     <row r="126" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="39" t="s">
@@ -31435,12 +31587,12 @@
       <c r="C126" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="D126" s="71" t="s">
+      <c r="D126" s="73" t="s">
         <v>494</v>
       </c>
-      <c r="E126" s="72"/>
-      <c r="F126" s="72"/>
-      <c r="G126" s="73"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="74"/>
+      <c r="G126" s="75"/>
     </row>
     <row r="127" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="39" t="s">
@@ -31452,12 +31604,12 @@
       <c r="C127" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="D127" s="71" t="s">
+      <c r="D127" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="E127" s="72"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="73"/>
+      <c r="E127" s="74"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="75"/>
     </row>
     <row r="128" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="39" t="s">
@@ -31469,12 +31621,12 @@
       <c r="C128" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="D128" s="71" t="s">
+      <c r="D128" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="E128" s="72"/>
-      <c r="F128" s="72"/>
-      <c r="G128" s="73"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="75"/>
     </row>
     <row r="129" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31507,27 +31659,27 @@
       </c>
     </row>
     <row r="135" spans="1:7" s="40" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="71" t="s">
+      <c r="A135" s="73" t="s">
         <v>498</v>
       </c>
-      <c r="B135" s="72"/>
-      <c r="C135" s="72"/>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="73"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="75"/>
     </row>
     <row r="136" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="137" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="68" t="s">
+      <c r="A137" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B137" s="68"/>
-      <c r="C137" s="68"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
     </row>
     <row r="138" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
@@ -31617,15 +31769,15 @@
     </row>
     <row r="142" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="68"/>
-      <c r="G143" s="68"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="70"/>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
+      <c r="F143" s="70"/>
+      <c r="G143" s="70"/>
     </row>
     <row r="144" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
@@ -31637,12 +31789,12 @@
       <c r="C144" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D144" s="69" t="s">
+      <c r="D144" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E144" s="69"/>
-      <c r="F144" s="69"/>
-      <c r="G144" s="69"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
     </row>
     <row r="145" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="39" t="s">
@@ -31654,12 +31806,12 @@
       <c r="C145" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D145" s="71" t="s">
+      <c r="D145" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="73"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="74"/>
+      <c r="G145" s="75"/>
     </row>
     <row r="146" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="39" t="s">
@@ -31671,12 +31823,12 @@
       <c r="C146" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D146" s="76" t="s">
+      <c r="D146" s="78" t="s">
         <v>500</v>
       </c>
-      <c r="E146" s="67"/>
-      <c r="F146" s="67"/>
-      <c r="G146" s="67"/>
+      <c r="E146" s="69"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="69"/>
     </row>
     <row r="147" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="148" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31709,26 +31861,26 @@
       </c>
     </row>
     <row r="153" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="71" t="s">
+      <c r="A153" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="72"/>
-      <c r="C153" s="72"/>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="72"/>
-      <c r="G153" s="73"/>
+      <c r="B153" s="74"/>
+      <c r="C153" s="74"/>
+      <c r="D153" s="74"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="74"/>
+      <c r="G153" s="75"/>
     </row>
     <row r="155" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A155" s="68" t="s">
+      <c r="A155" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B155" s="68"/>
-      <c r="C155" s="68"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="68"/>
-      <c r="F155" s="68"/>
-      <c r="G155" s="68"/>
+      <c r="B155" s="70"/>
+      <c r="C155" s="70"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+      <c r="F155" s="70"/>
+      <c r="G155" s="70"/>
     </row>
     <row r="156" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
@@ -31796,15 +31948,15 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A160" s="68" t="s">
+      <c r="A160" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="B160" s="68"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="68"/>
-      <c r="G160" s="68"/>
+      <c r="B160" s="70"/>
+      <c r="C160" s="70"/>
+      <c r="D160" s="70"/>
+      <c r="E160" s="70"/>
+      <c r="F160" s="70"/>
+      <c r="G160" s="70"/>
     </row>
     <row r="161" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
@@ -31816,12 +31968,12 @@
       <c r="C161" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="69" t="s">
+      <c r="D161" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E161" s="69"/>
-      <c r="F161" s="69"/>
-      <c r="G161" s="69"/>
+      <c r="E161" s="71"/>
+      <c r="F161" s="71"/>
+      <c r="G161" s="71"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
@@ -31833,12 +31985,12 @@
       <c r="C162" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D162" s="71" t="s">
+      <c r="D162" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="E162" s="72"/>
-      <c r="F162" s="72"/>
-      <c r="G162" s="73"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -31963,15 +32115,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="36" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -31979,15 +32131,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -32017,27 +32169,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -32135,15 +32287,15 @@
       <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
@@ -32155,12 +32307,12 @@
       <c r="C18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
@@ -32172,12 +32324,12 @@
       <c r="C19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
@@ -32189,12 +32341,12 @@
       <c r="C20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
@@ -32206,12 +32358,12 @@
       <c r="C21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
@@ -32223,12 +32375,12 @@
       <c r="C22" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
@@ -32271,12 +32423,12 @@
       <c r="C26" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="84"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
@@ -32288,10 +32440,10 @@
       <c r="C27" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="81"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
@@ -32303,10 +32455,10 @@
       <c r="C28" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="81"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
@@ -32318,10 +32470,10 @@
       <c r="C29" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="81"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
@@ -32333,10 +32485,10 @@
       <c r="C30" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="81"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="32"/>
@@ -32393,15 +32545,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="71" t="s">
+      <c r="A37" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="75"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
@@ -32413,15 +32565,15 @@
       <c r="G38" s="32"/>
     </row>
     <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
     </row>
     <row r="40" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
@@ -32498,15 +32650,15 @@
       <c r="G43" s="32"/>
     </row>
     <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
     </row>
     <row r="45" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
@@ -32518,12 +32670,12 @@
       <c r="C45" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="82"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="84"/>
     </row>
     <row r="46" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="27" t="s">
@@ -32535,10 +32687,10 @@
       <c r="C46" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D46" s="77"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
     </row>
     <row r="47" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="27" t="s">
@@ -32550,10 +32702,10 @@
       <c r="C47" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
     </row>
     <row r="48" spans="1:7" s="31" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
@@ -32565,12 +32717,12 @@
       <c r="C48" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="D48" s="71" t="s">
+      <c r="D48" s="73" t="s">
         <v>370</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="73"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="75"/>
     </row>
     <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="27" t="s">
@@ -32582,10 +32734,10 @@
       <c r="C49" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
     </row>
     <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="27" t="s">
@@ -32597,10 +32749,10 @@
       <c r="C50" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="77"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
     </row>
     <row r="51" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="27" t="s">
@@ -32612,10 +32764,10 @@
       <c r="C51" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="77"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
     </row>
     <row r="52" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="27" t="s">
@@ -32627,10 +32779,10 @@
       <c r="C52" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="77"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="79"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
+      <c r="G52" s="81"/>
     </row>
     <row r="53" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27" t="s">
@@ -32642,12 +32794,12 @@
       <c r="C53" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D53" s="76" t="s">
+      <c r="D53" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
     </row>
     <row r="54" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="27" t="s">
@@ -32659,12 +32811,12 @@
       <c r="C54" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="76" t="s">
+      <c r="D54" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="67"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="27" t="s">
@@ -32676,10 +32828,10 @@
       <c r="C55" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="77"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="79"/>
+      <c r="D55" s="79"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="81"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="27" t="s">
@@ -32691,10 +32843,10 @@
       <c r="C56" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
     </row>
     <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="27" t="s">
@@ -32706,10 +32858,10 @@
       <c r="C57" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="27" t="s">
@@ -32721,10 +32873,10 @@
       <c r="C58" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D58" s="77"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="27" t="s">
@@ -32736,10 +32888,10 @@
       <c r="C59" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="81"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="27" t="s">
@@ -32751,12 +32903,12 @@
       <c r="C60" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D60" s="67" t="s">
+      <c r="D60" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="27" t="s">
@@ -32768,12 +32920,12 @@
       <c r="C61" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D61" s="76" t="s">
+      <c r="D61" s="78" t="s">
         <v>324</v>
       </c>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="69"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="27" t="s">
@@ -32785,10 +32937,10 @@
       <c r="C62" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
+      <c r="G62" s="81"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="32"/>
@@ -32827,12 +32979,12 @@
       <c r="C66" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D66" s="69" t="s">
+      <c r="D66" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="69"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
@@ -32844,12 +32996,12 @@
       <c r="C67" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D67" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="E67" s="74"/>
-      <c r="F67" s="74"/>
-      <c r="G67" s="75"/>
+      <c r="E67" s="76"/>
+      <c r="F67" s="76"/>
+      <c r="G67" s="77"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
@@ -32861,12 +33013,12 @@
       <c r="C68" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="E68" s="74"/>
-      <c r="F68" s="74"/>
-      <c r="G68" s="75"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="77"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="27" t="s">
@@ -32878,12 +33030,12 @@
       <c r="C69" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="73" t="s">
         <v>303</v>
       </c>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="75"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="76"/>
+      <c r="G69" s="77"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
@@ -32927,12 +33079,12 @@
       <c r="C73" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D73" s="69" t="s">
+      <c r="D73" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="27" t="s">
@@ -32944,12 +33096,12 @@
       <c r="C74" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="76" t="s">
+      <c r="D74" s="78" t="s">
         <v>355</v>
       </c>
-      <c r="E74" s="67"/>
-      <c r="F74" s="67"/>
-      <c r="G74" s="67"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
@@ -32961,10 +33113,10 @@
       <c r="C75" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="69"/>
+      <c r="G75" s="69"/>
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="27" t="s">
@@ -32976,12 +33128,12 @@
       <c r="C76" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D76" s="76" t="s">
+      <c r="D76" s="78" t="s">
         <v>362</v>
       </c>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
@@ -32993,12 +33145,12 @@
       <c r="C77" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D77" s="76" t="s">
+      <c r="D77" s="78" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
@@ -33043,12 +33195,12 @@
       <c r="C81" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="69" t="s">
+      <c r="D81" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
     </row>
     <row r="82" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="29" t="s">
@@ -33060,10 +33212,10 @@
       <c r="C82" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="29" t="s">
@@ -33075,10 +33227,10 @@
       <c r="C83" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="29" t="s">
@@ -33090,10 +33242,10 @@
       <c r="C84" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
     </row>
     <row r="85" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="29" t="s">
@@ -33105,10 +33257,10 @@
       <c r="C85" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="29" t="s">
@@ -33120,10 +33272,10 @@
       <c r="C86" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="67"/>
-      <c r="E86" s="67"/>
-      <c r="F86" s="67"/>
-      <c r="G86" s="67"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="69"/>
+      <c r="F86" s="69"/>
+      <c r="G86" s="69"/>
     </row>
     <row r="87" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="29" t="s">
@@ -33135,10 +33287,10 @@
       <c r="C87" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
+      <c r="D87" s="69"/>
+      <c r="E87" s="69"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="69"/>
     </row>
     <row r="88" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="29" t="s">
@@ -33150,10 +33302,10 @@
       <c r="C88" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="67"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
     </row>
     <row r="90" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="35" t="s">
@@ -33178,12 +33330,12 @@
       <c r="C92" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="D92" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
     </row>
     <row r="93" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
@@ -33193,10 +33345,10 @@
         <v>210</v>
       </c>
       <c r="C93" s="29"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="79"/>
+      <c r="D93" s="79"/>
+      <c r="E93" s="80"/>
+      <c r="F93" s="80"/>
+      <c r="G93" s="81"/>
     </row>
     <row r="94" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
@@ -33206,10 +33358,10 @@
         <v>339</v>
       </c>
       <c r="C94" s="29"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="80"/>
+      <c r="F94" s="80"/>
+      <c r="G94" s="81"/>
     </row>
     <row r="95" spans="1:7" s="31" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
@@ -33219,10 +33371,10 @@
         <v>341</v>
       </c>
       <c r="C95" s="29"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="79"/>
+      <c r="D95" s="79"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="81"/>
     </row>
     <row r="96" spans="1:7" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
@@ -33232,10 +33384,10 @@
         <v>343</v>
       </c>
       <c r="C96" s="29"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="80"/>
+      <c r="F96" s="80"/>
+      <c r="G96" s="81"/>
     </row>
     <row r="97" spans="1:7" s="31" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
@@ -33245,10 +33397,10 @@
         <v>345</v>
       </c>
       <c r="C97" s="29"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="79"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="80"/>
+      <c r="F97" s="80"/>
+      <c r="G97" s="81"/>
     </row>
     <row r="98" spans="1:7" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="28" t="s">
@@ -33258,10 +33410,10 @@
         <v>347</v>
       </c>
       <c r="C98" s="29"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="80"/>
+      <c r="F98" s="80"/>
+      <c r="G98" s="81"/>
     </row>
     <row r="99" spans="1:7" s="31" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28" t="s">
@@ -33271,10 +33423,10 @@
         <v>348</v>
       </c>
       <c r="C99" s="29"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="81"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="32"/>
@@ -33313,32 +33465,32 @@
       </c>
     </row>
     <row r="106" spans="1:7" s="31" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="71" t="s">
+      <c r="A106" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="72"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="72"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
-      <c r="G106" s="73"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="74"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="75"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
     </row>
     <row r="108" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="68" t="s">
+      <c r="A108" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="68"/>
+      <c r="B108" s="70"/>
+      <c r="C108" s="70"/>
+      <c r="D108" s="70"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="70"/>
     </row>
     <row r="109" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A109" s="30" t="s">
@@ -33406,15 +33558,15 @@
       </c>
     </row>
     <row r="113" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="68" t="s">
+      <c r="A113" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="68"/>
-      <c r="G113" s="68"/>
+      <c r="B113" s="70"/>
+      <c r="C113" s="70"/>
+      <c r="D113" s="70"/>
+      <c r="E113" s="70"/>
+      <c r="F113" s="70"/>
+      <c r="G113" s="70"/>
     </row>
     <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
@@ -33426,12 +33578,12 @@
       <c r="C114" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="80" t="s">
+      <c r="D114" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E114" s="81"/>
-      <c r="F114" s="81"/>
-      <c r="G114" s="82"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="84"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="29" t="s">
@@ -33443,12 +33595,12 @@
       <c r="C115" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="D115" s="76" t="s">
+      <c r="D115" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
+      <c r="E115" s="69"/>
+      <c r="F115" s="69"/>
+      <c r="G115" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="67">
@@ -33558,15 +33710,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
@@ -33574,15 +33726,15 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
     </row>
     <row r="6" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
@@ -33612,27 +33764,27 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
@@ -33709,15 +33861,15 @@
       <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
@@ -33729,12 +33881,12 @@
       <c r="C17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
@@ -33746,10 +33898,10 @@
       <c r="C18" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
@@ -33761,12 +33913,12 @@
       <c r="C19" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
@@ -33778,10 +33930,10 @@
       <c r="C20" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
@@ -33793,10 +33945,10 @@
       <c r="C21" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
@@ -33808,10 +33960,10 @@
       <c r="C22" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
@@ -33823,10 +33975,10 @@
       <c r="C23" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
@@ -33838,10 +33990,10 @@
       <c r="C24" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="32"/>
@@ -33880,27 +34032,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
     </row>
     <row r="33" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
@@ -33956,15 +34108,15 @@
       <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="70"/>
     </row>
     <row r="37" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
@@ -33976,12 +34128,12 @@
       <c r="C37" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="82"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="84"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
@@ -33993,10 +34145,10 @@
       <c r="C38" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D38" s="71"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
@@ -34008,10 +34160,10 @@
       <c r="C39" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="75"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
@@ -34023,12 +34175,12 @@
       <c r="C40" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="71" t="s">
+      <c r="D40" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="73"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="75"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="35" t="s">
@@ -34058,12 +34210,12 @@
       <c r="C44" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="69" t="s">
+      <c r="D44" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
@@ -34075,10 +34227,10 @@
       <c r="C45" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="75"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
@@ -34090,10 +34242,10 @@
       <c r="C46" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="D46" s="73"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="75"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
@@ -34105,12 +34257,12 @@
       <c r="C47" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="71" t="s">
+      <c r="D47" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="75"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="28" t="s">
@@ -34122,10 +34274,10 @@
       <c r="C48" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="75"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="77"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
@@ -34137,10 +34289,10 @@
       <c r="C49" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
-      <c r="G49" s="75"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="28" t="s">
@@ -34152,10 +34304,10 @@
       <c r="C50" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="75"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
@@ -34167,10 +34319,10 @@
       <c r="C51" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="75"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
@@ -34182,10 +34334,10 @@
       <c r="C52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
-      <c r="G52" s="75"/>
+      <c r="D52" s="73"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="56" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
@@ -34215,26 +34367,26 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="71" t="s">
+      <c r="A59" s="73" t="s">
         <v>446</v>
       </c>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
     </row>
     <row r="61" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
     </row>
     <row r="62" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A62" s="30" t="s">
@@ -34365,15 +34517,15 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="68" t="s">
+      <c r="A69" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
     </row>
     <row r="70" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
@@ -34385,12 +34537,12 @@
       <c r="C70" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="80" t="s">
+      <c r="D70" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="82"/>
+      <c r="E70" s="83"/>
+      <c r="F70" s="83"/>
+      <c r="G70" s="84"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="28" t="s">
@@ -34402,12 +34554,12 @@
       <c r="C71" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="E71" s="72"/>
-      <c r="F71" s="72"/>
-      <c r="G71" s="73"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="75"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="28" t="s">
@@ -34419,12 +34571,12 @@
       <c r="C72" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="E72" s="72"/>
-      <c r="F72" s="72"/>
-      <c r="G72" s="73"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="75"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
@@ -34449,12 +34601,12 @@
       <c r="C76" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="28" t="s">
@@ -34466,10 +34618,10 @@
       <c r="C77" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="28" t="s">
@@ -34481,10 +34633,10 @@
       <c r="C78" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
-      <c r="G78" s="67"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69"/>
+      <c r="G78" s="69"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="28" t="s">
@@ -34496,10 +34648,10 @@
       <c r="C79" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="69"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="28" t="s">
@@ -34511,10 +34663,10 @@
       <c r="C80" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="28" t="s">
@@ -34526,12 +34678,12 @@
       <c r="C81" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="75"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="76"/>
+      <c r="G81" s="77"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="28" t="s">
@@ -34543,10 +34695,10 @@
       <c r="C82" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="67"/>
-      <c r="G82" s="67"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="28" t="s">
@@ -34558,10 +34710,10 @@
       <c r="C83" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
+      <c r="D83" s="69"/>
+      <c r="E83" s="69"/>
+      <c r="F83" s="69"/>
+      <c r="G83" s="69"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="28" t="s">
@@ -34573,10 +34725,10 @@
       <c r="C84" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="67"/>
-      <c r="G84" s="67"/>
+      <c r="D84" s="69"/>
+      <c r="E84" s="69"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -34641,10 +34793,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34771,152 +34923,165 @@
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+    <row r="44" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B57" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B45" s="45" t="s">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
+      <c r="W57" s="43"/>
+      <c r="X57" s="43"/>
+      <c r="Y57" s="43"/>
+      <c r="Z57" s="43"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B58" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C58" s="46" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C46" s="46" t="s">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C59" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D46" s="46" t="s">
+      <c r="D59" s="46" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D47" s="46" t="s">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D60" s="46" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C48" s="46" t="s">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C61" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D61" s="46" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C49" s="46" t="s">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C62" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="D49" s="46" t="s">
+      <c r="D62" s="46" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D50" s="46" t="s">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D63" s="46" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B51" s="45" t="s">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B64" s="45" t="s">
         <v>515</v>
       </c>
-      <c r="C51" s="46" t="s">
+      <c r="C64" s="46" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C52" s="46" t="s">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C65" s="46" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C53" s="46" t="s">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C66" s="46" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C54" s="46" t="s">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C67" s="46" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B55" s="45" t="s">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B68" s="45" t="s">
         <v>518</v>
       </c>
-      <c r="C55" s="46" t="s">
+      <c r="C68" s="46" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C56" s="46" t="s">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C69" s="46" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C57" s="46" t="s">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C70" s="46" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A72" s="44" t="s">
         <v>568</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B72" s="44" t="s">
         <v>689</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -34933,13 +35098,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>73</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>19</xdr:col>
                 <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>83</xdr:row>
+                <xdr:row>96</xdr:row>
                 <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
@@ -34956,10 +35121,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z94"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35038,193 +35203,208 @@
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+    <row r="38" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B51" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B52" s="45" t="s">
         <v>541</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C52" s="46" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C40" s="46" t="s">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C53" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D53" s="46" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="44" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="46" t="s">
+    <row r="57" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D57" s="46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="45" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="46"/>
-      <c r="D45" s="46" t="s">
+    <row r="58" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="46" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="46" t="s">
+    <row r="59" spans="1:26" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="46" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="45" t="s">
         <v>545</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C60" s="46" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C48" s="46" t="s">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C61" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D61" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="E48" s="42"/>
-    </row>
-    <row r="52" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="46" t="s">
+      <c r="E61" s="42"/>
+    </row>
+    <row r="65" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:5" s="48" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D68" s="46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="54" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="46"/>
-      <c r="D54" s="46" t="s">
+    <row r="69" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="46"/>
+      <c r="D69" s="46" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="55" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="46"/>
-      <c r="D55" s="46" t="s">
+    <row r="70" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="46"/>
+      <c r="D70" s="46" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="45" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="45" t="s">
         <v>547</v>
       </c>
-      <c r="C57" s="46" t="s">
+      <c r="C72" s="46" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C58" s="46" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C73" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="D58" s="46" t="s">
+      <c r="D73" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="E58" s="42"/>
-    </row>
-    <row r="63" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="46" t="s">
+      <c r="E73" s="42"/>
+    </row>
+    <row r="78" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D78" s="46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="64" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="46" t="s">
+    <row r="79" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="46" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="65" spans="2:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="46" t="s">
+    <row r="80" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="46" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D66" s="46" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="46" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="67" spans="2:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="46" t="s">
+    <row r="82" spans="2:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="46" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="45" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="45" t="s">
         <v>549</v>
       </c>
-      <c r="C68" s="46" t="s">
+      <c r="C83" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="D68" s="42"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C69" s="46" t="s">
+      <c r="D83" s="42"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="D69" s="46" t="s">
+      <c r="D84" s="46" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C91" s="46" t="s">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C106" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="D91" s="46" t="s">
+      <c r="D106" s="46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D92" s="46" t="s">
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="46" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D93" s="46" t="s">
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="46" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D94" s="46" t="s">
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="46" t="s">
         <v>599</v>
       </c>
     </row>
@@ -35237,10 +35417,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z80"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O81" sqref="O81"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35322,145 +35502,158 @@
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+    <row r="12" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:26" s="47" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="44" t="s">
         <v>523</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B51" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
+      <c r="Y51" s="43"/>
+      <c r="Z51" s="43"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B52" s="45" t="s">
         <v>509</v>
       </c>
-      <c r="C39" s="46" t="s">
+      <c r="C52" s="46" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C40" s="46" t="s">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C53" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D53" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C44" s="46" t="s">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C57" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D57" s="46" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D45" s="46" t="s">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D58" s="46" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="D46" s="46" t="s">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="D59" s="46" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B47" s="45" t="s">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B60" s="45" t="s">
         <v>555</v>
       </c>
-      <c r="C47" s="46" t="s">
+      <c r="C60" s="46" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C48" s="46" t="s">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C61" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D48" s="46" t="s">
+      <c r="D61" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C61" s="46" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D74" s="46" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D62" s="46" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="46" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" s="45" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="45" t="s">
         <v>557</v>
       </c>
-      <c r="C63" s="46" t="s">
+      <c r="C76" s="46" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C64" s="46" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D77" s="46" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C76" s="46" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C87" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D87" s="46" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D77" s="46" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="46" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D78" s="46" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="46" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" s="45" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="45" t="s">
         <v>559</v>
       </c>
-      <c r="C79" s="46" t="s">
+      <c r="C90" s="46" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C80" s="46" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C91" s="46" t="s">
         <v>606</v>
       </c>
     </row>
